--- a/BackTest/2020-01-22 BackTest XSR.xlsx
+++ b/BackTest/2020-01-22 BackTest XSR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -781,7 +781,7 @@
         <v>-1749046.0069</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-1407698.666</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-1840313.1627</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-2029109.2225</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-2029109.2225</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-2028997.4217</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-1629277.9562</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-2225058.8672</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-2224609.1208</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-1839522.1494</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-1839300.1494</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-1463808.0189</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-1463584.0189</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-1692347.109</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-1692347.109</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-2066568.5752</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-2066568.5752</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-2372429.3123</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-2372429.3123</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-2372429.3123</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-2112157.2992</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-2112046.2992</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-1858642.3133</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-1858409.3133</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-2081289.4853</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-1887395.0097</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-1464635.5264</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-1464550.4013</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-1726114.8184</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-1726014.8184</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-1916042.6705</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-1621537.4708</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-1621537.4708</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-2079392.6178</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-2758091.8627</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-3028562.1101</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-3626809.8047</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-4027925.9256</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-4060125.0665</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-4060125.0665</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-4060125.0665</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-4458575.1798</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-4799666.8813</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-5031730.362600001</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-5031730.362600001</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-5067832.411</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-5067832.411</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-5109525.1673</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-4713987.2289</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-4713987.2289</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-4378658.5307</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-4658786.7871</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-4983190.053300001</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-4550114.478100001</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-4550114.478100001</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-4550114.478100001</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-4236745.018300001</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-3936352.9279</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-3622580.8358</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-3622580.8358</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-3622351.911100001</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-3430835.991200001</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-3429305.0634</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-3681332.1904</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-3333747.5336</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-3725720.5334</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-3929139.6889</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-4234472.8361</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-4234472.8361</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-3872021.6475</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-3614122.5745</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-4041223.0143</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-4041223.0143</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-4041223.0143</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-4041223.0143</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-3818081.0677</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-3818081.0677</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-3544277.7558</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-3300513.883595537</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-3482390.571895537</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-3107876.032295537</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-2886395.806495537</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-3220778.142095537</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-3201106.616195537</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-3500163.831495537</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-3107509.217995537</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-3960076.195995537</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-3497667.228695537</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-3510246.895695537</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-3510246.895695537</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-3844856.544695537</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-4660266.054695536</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-4660266.054695536</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-5114534.890195536</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-5476593.076895537</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-4965360.228895537</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-5315839.662995537</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-5465839.662995537</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-5150694.732995537</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-5218804.361195537</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-5218804.361195537</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-5353798.679595537</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -14542,10 +14542,14 @@
         <v>-7224467.277603492</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
-      </c>
-      <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I429" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="J429" t="n">
+        <v>5.796</v>
+      </c>
       <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
@@ -14575,11 +14579,19 @@
         <v>-7378681.251403492</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
-      </c>
-      <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I430" t="n">
+        <v>5.809</v>
+      </c>
+      <c r="J430" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14608,11 +14620,19 @@
         <v>-7257014.634603492</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
-      </c>
-      <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I431" t="n">
+        <v>5.804</v>
+      </c>
+      <c r="J431" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14641,11 +14661,19 @@
         <v>-7447235.101503492</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I432" t="n">
+        <v>5.808</v>
+      </c>
+      <c r="J432" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14674,11 +14702,19 @@
         <v>-9203419.517203493</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I433" t="n">
+        <v>5.806</v>
+      </c>
+      <c r="J433" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14710,8 +14746,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -14743,8 +14785,14 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -14776,8 +14824,14 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -14809,8 +14863,14 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -14842,8 +14902,14 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -14875,8 +14941,14 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -14908,8 +14980,14 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -14938,11 +15016,19 @@
         <v>-8224210.748403492</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
-      </c>
-      <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I441" t="n">
+        <v>5.822</v>
+      </c>
+      <c r="J441" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -14974,8 +15060,14 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15007,8 +15099,14 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15040,8 +15138,14 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15073,8 +15177,14 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15106,8 +15216,14 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15139,8 +15255,14 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15172,8 +15294,14 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15205,8 +15333,14 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15238,8 +15372,14 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15271,8 +15411,14 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15304,8 +15450,14 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15337,8 +15489,14 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15370,8 +15528,14 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15403,8 +15567,14 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15436,8 +15606,14 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15469,8 +15645,14 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15502,8 +15684,14 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15535,8 +15723,14 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15568,8 +15762,14 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15601,8 +15801,14 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15634,8 +15840,14 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15667,8 +15879,14 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -15697,11 +15915,19 @@
         <v>-7836864.084803495</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
-      </c>
-      <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I464" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="J464" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -15733,8 +15959,14 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -15763,15 +15995,15 @@
         <v>-7743339.725003495</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
-      </c>
-      <c r="I466" t="n">
-        <v>5.815</v>
-      </c>
-      <c r="J466" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>5.796</v>
+      </c>
       <c r="K466" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L466" t="n">
@@ -15802,12 +16034,12 @@
         <v>-7908051.019303495</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
-      </c>
-      <c r="I467" t="n">
-        <v>5.829</v>
-      </c>
-      <c r="J467" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>5.796</v>
+      </c>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15841,12 +16073,14 @@
         <v>-7776986.853503495</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I468" t="n">
         <v>5.808</v>
       </c>
-      <c r="J468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>5.796</v>
+      </c>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15880,12 +16114,12 @@
         <v>-7533617.136603495</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
-      </c>
-      <c r="I469" t="n">
-        <v>5.809</v>
-      </c>
-      <c r="J469" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>5.796</v>
+      </c>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15919,12 +16153,14 @@
         <v>-7777655.072903495</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I470" t="n">
         <v>5.811</v>
       </c>
-      <c r="J470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>5.796</v>
+      </c>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15958,12 +16194,12 @@
         <v>-7777655.072903495</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
-      </c>
-      <c r="I471" t="n">
-        <v>5.809</v>
-      </c>
-      <c r="J471" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>5.796</v>
+      </c>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15997,12 +16233,12 @@
         <v>-7626946.833403495</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
-      </c>
-      <c r="I472" t="n">
-        <v>5.809</v>
-      </c>
-      <c r="J472" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>5.796</v>
+      </c>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16039,7 +16275,9 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>5.796</v>
+      </c>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16076,7 +16314,9 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>5.796</v>
+      </c>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16113,7 +16353,9 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>5.796</v>
+      </c>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16150,7 +16392,9 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>5.796</v>
+      </c>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16187,7 +16431,9 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>5.796</v>
+      </c>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16221,10 +16467,14 @@
         <v>-7491376.848503496</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
-      </c>
-      <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I478" t="n">
+        <v>5.803</v>
+      </c>
+      <c r="J478" t="n">
+        <v>5.796</v>
+      </c>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16261,7 +16511,9 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>5.796</v>
+      </c>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16295,12 +16547,12 @@
         <v>-7537256.427303496</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
-      </c>
-      <c r="I480" t="n">
-        <v>5.803</v>
-      </c>
-      <c r="J480" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>5.796</v>
+      </c>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16334,12 +16586,12 @@
         <v>-7165294.521003496</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
-      </c>
-      <c r="I481" t="n">
-        <v>5.821</v>
-      </c>
-      <c r="J481" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>5.796</v>
+      </c>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16373,12 +16625,12 @@
         <v>-6903091.909803496</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
-      </c>
-      <c r="I482" t="n">
-        <v>5.828</v>
-      </c>
-      <c r="J482" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>5.796</v>
+      </c>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16415,7 +16667,9 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>5.796</v>
+      </c>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16452,7 +16706,9 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>5.796</v>
+      </c>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16489,7 +16745,9 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>5.796</v>
+      </c>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16526,7 +16784,9 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>5.796</v>
+      </c>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16563,7 +16823,9 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>5.796</v>
+      </c>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16597,10 +16859,14 @@
         <v>-7001282.286303496</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
-      </c>
-      <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I488" t="n">
+        <v>5.812</v>
+      </c>
+      <c r="J488" t="n">
+        <v>5.796</v>
+      </c>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16634,10 +16900,14 @@
         <v>-6805200.079003496</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
-      </c>
-      <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I489" t="n">
+        <v>5.811</v>
+      </c>
+      <c r="J489" t="n">
+        <v>5.796</v>
+      </c>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16671,10 +16941,14 @@
         <v>-6953756.296403497</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
-      </c>
-      <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I490" t="n">
+        <v>5.845</v>
+      </c>
+      <c r="J490" t="n">
+        <v>5.796</v>
+      </c>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16711,7 +16985,9 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>5.796</v>
+      </c>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16748,7 +17024,9 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>5.796</v>
+      </c>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16785,7 +17063,9 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>5.796</v>
+      </c>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16822,7 +17102,9 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>5.796</v>
+      </c>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16859,7 +17141,9 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>5.796</v>
+      </c>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16896,7 +17180,9 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>5.796</v>
+      </c>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16933,7 +17219,9 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>5.796</v>
+      </c>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16970,7 +17258,9 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>5.796</v>
+      </c>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17007,7 +17297,9 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>5.796</v>
+      </c>
       <c r="K499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17044,7 +17336,9 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>5.796</v>
+      </c>
       <c r="K500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17081,7 +17375,9 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>5.796</v>
+      </c>
       <c r="K501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17118,7 +17414,9 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>5.796</v>
+      </c>
       <c r="K502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17155,7 +17453,9 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>5.796</v>
+      </c>
       <c r="K503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17192,7 +17492,9 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>5.796</v>
+      </c>
       <c r="K504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17229,7 +17531,9 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>5.796</v>
+      </c>
       <c r="K505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17266,7 +17570,9 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>5.796</v>
+      </c>
       <c r="K506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17300,16 +17606,20 @@
         <v>-5373927.508303497</v>
       </c>
       <c r="H507" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>5.796</v>
+      </c>
       <c r="K507" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L507" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L507" t="n">
+        <v>1</v>
+      </c>
       <c r="M507" t="inlineStr"/>
     </row>
     <row r="508">
@@ -17335,11 +17645,17 @@
         <v>-5525508.370003497</v>
       </c>
       <c r="H508" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17371,8 +17687,14 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17404,8 +17726,14 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17437,8 +17765,14 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17470,8 +17804,14 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17503,8 +17843,14 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17536,8 +17882,14 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17566,11 +17918,17 @@
         <v>-5222010.185403497</v>
       </c>
       <c r="H515" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17599,11 +17957,17 @@
         <v>-4995173.972803497</v>
       </c>
       <c r="H516" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17635,8 +17999,14 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -17668,8 +18038,14 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -17701,8 +18077,14 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -17734,8 +18116,14 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -17767,8 +18155,14 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -17800,8 +18194,14 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -17833,8 +18233,14 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -17866,8 +18272,14 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -17899,8 +18311,14 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -17932,8 +18350,14 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -17965,8 +18389,14 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -17998,8 +18428,14 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18031,8 +18467,14 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18064,8 +18506,14 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18097,8 +18545,14 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18130,8 +18584,14 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18163,8 +18623,14 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18196,8 +18662,14 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18229,8 +18701,14 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18262,8 +18740,14 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18295,8 +18779,14 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18328,8 +18818,14 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18361,8 +18857,14 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18394,8 +18896,14 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18427,8 +18935,14 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18460,8 +18974,14 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18493,8 +19013,14 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -18526,8 +19052,14 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="J544" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -18559,8 +19091,14 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -18592,8 +19130,14 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="J546" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -18625,8 +19169,14 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="J547" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -18658,8 +19208,14 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="J548" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -18691,8 +19247,14 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="J549" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -18724,8 +19286,14 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="J550" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -18757,8 +19325,14 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -18790,8 +19364,14 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -18823,8 +19403,14 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -18856,8 +19442,14 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -18889,8 +19481,14 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -18922,8 +19520,14 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -18955,8 +19559,14 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -18988,8 +19598,14 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19021,8 +19637,14 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19054,8 +19676,14 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19087,8 +19715,14 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19120,8 +19754,14 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19153,8 +19793,14 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19186,8 +19832,14 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19219,8 +19871,14 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19252,8 +19910,14 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19285,8 +19949,14 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19318,8 +19988,14 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="J568" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19351,8 +20027,14 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="J569" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19384,8 +20066,14 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="J570" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19417,8 +20105,14 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="J571" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19450,8 +20144,14 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="J572" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -19483,8 +20183,14 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="J573" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -19516,8 +20222,14 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="J574" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -19549,8 +20261,14 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="J575" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -19582,8 +20300,14 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -19615,8 +20339,14 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -19648,8 +20378,14 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="J578" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -19681,8 +20417,14 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="J579" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -19714,8 +20456,14 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -19747,8 +20495,14 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -19780,8 +20534,14 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="J582" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -19813,8 +20573,14 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -19846,8 +20612,14 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="J584" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -19879,8 +20651,14 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -19912,8 +20690,14 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -19945,8 +20729,14 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -19978,8 +20768,14 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20011,8 +20807,14 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20044,8 +20846,14 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -20077,8 +20885,14 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -20110,8 +20924,14 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -20143,8 +20963,14 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -20176,8 +21002,14 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20209,8 +21041,14 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20242,8 +21080,14 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20275,8 +21119,14 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20308,8 +21158,14 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20341,8 +21197,14 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20374,8 +21236,14 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20407,8 +21275,14 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20440,8 +21314,14 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -20473,8 +21353,14 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -20506,8 +21392,14 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -20539,8 +21431,14 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -20572,8 +21470,14 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -20605,8 +21509,14 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -20638,8 +21548,14 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -20671,8 +21587,14 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -20704,8 +21626,14 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -20737,8 +21665,14 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="J611" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -20770,8 +21704,14 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="J612" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -20803,8 +21743,14 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="J613" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -20836,8 +21782,14 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -20869,8 +21821,14 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="J615" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -20902,8 +21860,14 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -20935,8 +21899,14 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="J617" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -20968,8 +21938,14 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="J618" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -21001,8 +21977,14 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="J619" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -21034,8 +22016,14 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="J620" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -21067,8 +22055,14 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="J621" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -21100,8 +22094,14 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="J622" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -21133,8 +22133,14 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="J623" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -21166,8 +22172,14 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="J624" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21199,8 +22211,14 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="J625" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21232,8 +22250,14 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="J626" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21265,8 +22289,14 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="J627" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21298,8 +22328,14 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="J628" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21331,8 +22367,14 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="J629" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21364,8 +22406,14 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="J630" t="n">
+        <v>5.796</v>
+      </c>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21394,15 +22442,17 @@
         <v>-6204740.562719683</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
-      </c>
-      <c r="I631" t="n">
-        <v>5.831</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I631" t="inlineStr"/>
       <c r="J631" t="n">
-        <v>5.831</v>
-      </c>
-      <c r="K631" t="inlineStr"/>
+        <v>5.796</v>
+      </c>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -21431,17 +22481,15 @@
         <v>-6145362.678219683</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
-      </c>
-      <c r="I632" t="n">
-        <v>5.832</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I632" t="inlineStr"/>
       <c r="J632" t="n">
-        <v>5.831</v>
+        <v>5.796</v>
       </c>
       <c r="K632" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L632" t="n">
@@ -21472,17 +22520,15 @@
         <v>-6296399.485919683</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
-      </c>
-      <c r="I633" t="n">
-        <v>5.833</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I633" t="inlineStr"/>
       <c r="J633" t="n">
-        <v>5.831</v>
+        <v>5.796</v>
       </c>
       <c r="K633" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L633" t="n">
@@ -21513,15 +22559,17 @@
         <v>-6296399.485919683</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
-      </c>
-      <c r="I634" t="n">
-        <v>5.832</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I634" t="inlineStr"/>
       <c r="J634" t="n">
-        <v>5.832</v>
-      </c>
-      <c r="K634" t="inlineStr"/>
+        <v>5.796</v>
+      </c>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -21550,17 +22598,15 @@
         <v>-6736948.233819683</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
-      </c>
-      <c r="I635" t="n">
-        <v>5.832</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I635" t="inlineStr"/>
       <c r="J635" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K635" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L635" t="n">
@@ -21591,13 +22637,11 @@
         <v>-6865593.148319683</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
-      </c>
-      <c r="I636" t="n">
-        <v>5.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I636" t="inlineStr"/>
       <c r="J636" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K636" t="inlineStr">
         <is>
@@ -21632,13 +22676,11 @@
         <v>-6865593.148319683</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
-      </c>
-      <c r="I637" t="n">
-        <v>5.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I637" t="inlineStr"/>
       <c r="J637" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K637" t="inlineStr">
         <is>
@@ -21673,13 +22715,11 @@
         <v>-6609939.997619683</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
-      </c>
-      <c r="I638" t="n">
-        <v>5.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I638" t="inlineStr"/>
       <c r="J638" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K638" t="inlineStr">
         <is>
@@ -21714,13 +22754,11 @@
         <v>-6754236.147619683</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
-      </c>
-      <c r="I639" t="n">
-        <v>5.828</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I639" t="inlineStr"/>
       <c r="J639" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K639" t="inlineStr">
         <is>
@@ -21755,13 +22793,11 @@
         <v>-6599228.782819684</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
-      </c>
-      <c r="I640" t="n">
-        <v>5.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I640" t="inlineStr"/>
       <c r="J640" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K640" t="inlineStr">
         <is>
@@ -21796,13 +22832,11 @@
         <v>-6381382.129719684</v>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
-      </c>
-      <c r="I641" t="n">
-        <v>5.806</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I641" t="inlineStr"/>
       <c r="J641" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K641" t="inlineStr">
         <is>
@@ -21837,13 +22871,13 @@
         <v>-6230251.756804546</v>
       </c>
       <c r="H642" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I642" t="n">
         <v>5.81</v>
       </c>
       <c r="J642" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K642" t="inlineStr">
         <is>
@@ -21882,7 +22916,7 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K643" t="inlineStr">
         <is>
@@ -21917,11 +22951,13 @@
         <v>-6336539.048104546</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
-      </c>
-      <c r="I644" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I644" t="n">
+        <v>5.809</v>
+      </c>
       <c r="J644" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K644" t="inlineStr">
         <is>
@@ -21956,13 +22992,11 @@
         <v>-6233258.650404546</v>
       </c>
       <c r="H645" t="n">
-        <v>2</v>
-      </c>
-      <c r="I645" t="n">
-        <v>5.815</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I645" t="inlineStr"/>
       <c r="J645" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K645" t="inlineStr">
         <is>
@@ -21997,11 +23031,13 @@
         <v>-6493299.563004547</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
-      </c>
-      <c r="I646" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I646" t="n">
+        <v>5.828</v>
+      </c>
       <c r="J646" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K646" t="inlineStr">
         <is>
@@ -22036,13 +23072,11 @@
         <v>-6724355.999304547</v>
       </c>
       <c r="H647" t="n">
-        <v>2</v>
-      </c>
-      <c r="I647" t="n">
-        <v>5.811</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I647" t="inlineStr"/>
       <c r="J647" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K647" t="inlineStr">
         <is>
@@ -22077,11 +23111,13 @@
         <v>-6924450.999304547</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
-      </c>
-      <c r="I648" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I648" t="n">
+        <v>5.81</v>
+      </c>
       <c r="J648" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K648" t="inlineStr">
         <is>
@@ -22116,11 +23152,13 @@
         <v>-7093826.262604547</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
-      </c>
-      <c r="I649" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I649" t="n">
+        <v>5.801</v>
+      </c>
       <c r="J649" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K649" t="inlineStr">
         <is>
@@ -22155,13 +23193,13 @@
         <v>-7105186.219004546</v>
       </c>
       <c r="H650" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I650" t="n">
         <v>5.8</v>
       </c>
       <c r="J650" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K650" t="inlineStr">
         <is>
@@ -22196,11 +23234,13 @@
         <v>-7285351.254804546</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
-      </c>
-      <c r="I651" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I651" t="n">
+        <v>5.799</v>
+      </c>
       <c r="J651" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K651" t="inlineStr">
         <is>
@@ -22235,11 +23275,13 @@
         <v>-7101771.050204546</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
-      </c>
-      <c r="I652" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I652" t="n">
+        <v>5.795</v>
+      </c>
       <c r="J652" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K652" t="inlineStr">
         <is>
@@ -22274,13 +23316,13 @@
         <v>-6684280.462604546</v>
       </c>
       <c r="H653" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I653" t="n">
         <v>5.805</v>
       </c>
       <c r="J653" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K653" t="inlineStr">
         <is>
@@ -22315,11 +23357,13 @@
         <v>-6455507.620104546</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
-      </c>
-      <c r="I654" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I654" t="n">
+        <v>5.815</v>
+      </c>
       <c r="J654" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K654" t="inlineStr">
         <is>
@@ -22354,13 +23398,13 @@
         <v>-6455740.620104546</v>
       </c>
       <c r="H655" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I655" t="n">
         <v>5.816</v>
       </c>
       <c r="J655" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K655" t="inlineStr">
         <is>
@@ -22395,13 +23439,13 @@
         <v>-6206762.958904546</v>
       </c>
       <c r="H656" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I656" t="n">
         <v>5.811</v>
       </c>
       <c r="J656" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K656" t="inlineStr">
         <is>
@@ -22436,13 +23480,13 @@
         <v>-6486337.912204546</v>
       </c>
       <c r="H657" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I657" t="n">
         <v>5.821</v>
       </c>
       <c r="J657" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K657" t="inlineStr">
         <is>
@@ -22477,13 +23521,13 @@
         <v>-6486337.912204546</v>
       </c>
       <c r="H658" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I658" t="n">
         <v>5.811</v>
       </c>
       <c r="J658" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K658" t="inlineStr">
         <is>
@@ -22518,13 +23562,13 @@
         <v>-6375097.530104546</v>
       </c>
       <c r="H659" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I659" t="n">
         <v>5.811</v>
       </c>
       <c r="J659" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K659" t="inlineStr">
         <is>
@@ -22559,13 +23603,11 @@
         <v>-6365011.530104546</v>
       </c>
       <c r="H660" t="n">
-        <v>2</v>
-      </c>
-      <c r="I660" t="n">
-        <v>5.813</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I660" t="inlineStr"/>
       <c r="J660" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K660" t="inlineStr">
         <is>
@@ -22600,13 +23642,11 @@
         <v>-6599431.437904546</v>
       </c>
       <c r="H661" t="n">
-        <v>2</v>
-      </c>
-      <c r="I661" t="n">
-        <v>5.833</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I661" t="inlineStr"/>
       <c r="J661" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K661" t="inlineStr">
         <is>
@@ -22641,13 +23681,11 @@
         <v>-6366905.279504546</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
-      </c>
-      <c r="I662" t="n">
-        <v>5.811</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I662" t="inlineStr"/>
       <c r="J662" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K662" t="inlineStr">
         <is>
@@ -22682,13 +23720,11 @@
         <v>-6164807.320504546</v>
       </c>
       <c r="H663" t="n">
-        <v>2</v>
-      </c>
-      <c r="I663" t="n">
-        <v>5.819</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I663" t="inlineStr"/>
       <c r="J663" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K663" t="inlineStr">
         <is>
@@ -22723,13 +23759,11 @@
         <v>-5907021.959104546</v>
       </c>
       <c r="H664" t="n">
-        <v>2</v>
-      </c>
-      <c r="I664" t="n">
-        <v>5.825</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I664" t="inlineStr"/>
       <c r="J664" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K664" t="inlineStr">
         <is>
@@ -22768,7 +23802,7 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K665" t="inlineStr">
         <is>
@@ -22807,7 +23841,7 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K666" t="inlineStr">
         <is>
@@ -22846,7 +23880,7 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K667" t="inlineStr">
         <is>
@@ -22885,7 +23919,7 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K668" t="inlineStr">
         <is>
@@ -22924,7 +23958,7 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K669" t="inlineStr">
         <is>
@@ -22963,7 +23997,7 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K670" t="inlineStr">
         <is>
@@ -23002,7 +24036,7 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K671" t="inlineStr">
         <is>
@@ -23041,7 +24075,7 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K672" t="inlineStr">
         <is>
@@ -23080,7 +24114,7 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K673" t="inlineStr">
         <is>
@@ -23119,7 +24153,7 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K674" t="inlineStr">
         <is>
@@ -23158,7 +24192,7 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K675" t="inlineStr">
         <is>
@@ -23197,7 +24231,7 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K676" t="inlineStr">
         <is>
@@ -23236,7 +24270,7 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K677" t="inlineStr">
         <is>
@@ -23275,7 +24309,7 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K678" t="inlineStr">
         <is>
@@ -23314,7 +24348,7 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K679" t="inlineStr">
         <is>
@@ -23353,7 +24387,7 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K680" t="inlineStr">
         <is>
@@ -23392,7 +24426,7 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K681" t="inlineStr">
         <is>
@@ -23431,7 +24465,7 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K682" t="inlineStr">
         <is>
@@ -23470,7 +24504,7 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K683" t="inlineStr">
         <is>
@@ -23509,7 +24543,7 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K684" t="inlineStr">
         <is>
@@ -23548,7 +24582,7 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K685" t="inlineStr">
         <is>
@@ -23587,7 +24621,7 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K686" t="inlineStr">
         <is>
@@ -23626,7 +24660,7 @@
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K687" t="inlineStr">
         <is>
@@ -23665,7 +24699,7 @@
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K688" t="inlineStr">
         <is>
@@ -23704,7 +24738,7 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K689" t="inlineStr">
         <is>
@@ -23743,7 +24777,7 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K690" t="inlineStr">
         <is>
@@ -23782,7 +24816,7 @@
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K691" t="inlineStr">
         <is>
@@ -23821,7 +24855,7 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K692" t="inlineStr">
         <is>
@@ -23856,13 +24890,11 @@
         <v>-5568574.593604547</v>
       </c>
       <c r="H693" t="n">
-        <v>2</v>
-      </c>
-      <c r="I693" t="n">
-        <v>5.821</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I693" t="inlineStr"/>
       <c r="J693" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K693" t="inlineStr">
         <is>
@@ -23897,13 +24929,11 @@
         <v>-5339348.736604547</v>
       </c>
       <c r="H694" t="n">
-        <v>2</v>
-      </c>
-      <c r="I694" t="n">
-        <v>5.812</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I694" t="inlineStr"/>
       <c r="J694" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K694" t="inlineStr">
         <is>
@@ -23938,13 +24968,11 @@
         <v>-5400253.296104548</v>
       </c>
       <c r="H695" t="n">
-        <v>2</v>
-      </c>
-      <c r="I695" t="n">
-        <v>5.815</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I695" t="inlineStr"/>
       <c r="J695" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K695" t="inlineStr">
         <is>
@@ -23979,13 +25007,11 @@
         <v>-5601493.482804548</v>
       </c>
       <c r="H696" t="n">
-        <v>2</v>
-      </c>
-      <c r="I696" t="n">
-        <v>5.811</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I696" t="inlineStr"/>
       <c r="J696" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K696" t="inlineStr">
         <is>
@@ -24020,13 +25046,11 @@
         <v>-5373476.160804548</v>
       </c>
       <c r="H697" t="n">
-        <v>2</v>
-      </c>
-      <c r="I697" t="n">
-        <v>5.809</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I697" t="inlineStr"/>
       <c r="J697" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K697" t="inlineStr">
         <is>
@@ -24061,13 +25085,11 @@
         <v>-5653787.993804548</v>
       </c>
       <c r="H698" t="n">
-        <v>2</v>
-      </c>
-      <c r="I698" t="n">
-        <v>5.812</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I698" t="inlineStr"/>
       <c r="J698" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K698" t="inlineStr">
         <is>
@@ -24102,13 +25124,11 @@
         <v>-5816846.350004548</v>
       </c>
       <c r="H699" t="n">
-        <v>2</v>
-      </c>
-      <c r="I699" t="n">
-        <v>5.807</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I699" t="inlineStr"/>
       <c r="J699" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K699" t="inlineStr">
         <is>
@@ -24143,13 +25163,13 @@
         <v>-5798139.177204548</v>
       </c>
       <c r="H700" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I700" t="n">
         <v>5.806</v>
       </c>
       <c r="J700" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K700" t="inlineStr">
         <is>
@@ -24184,13 +25204,13 @@
         <v>-5650745.531004548</v>
       </c>
       <c r="H701" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I701" t="n">
         <v>5.807</v>
       </c>
       <c r="J701" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K701" t="inlineStr">
         <is>
@@ -24225,13 +25245,11 @@
         <v>-5399380.883704548</v>
       </c>
       <c r="H702" t="n">
-        <v>2</v>
-      </c>
-      <c r="I702" t="n">
-        <v>5.819</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I702" t="inlineStr"/>
       <c r="J702" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K702" t="inlineStr">
         <is>
@@ -24266,13 +25284,11 @@
         <v>-5399380.883704548</v>
       </c>
       <c r="H703" t="n">
-        <v>2</v>
-      </c>
-      <c r="I703" t="n">
-        <v>5.82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I703" t="inlineStr"/>
       <c r="J703" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K703" t="inlineStr">
         <is>
@@ -24307,13 +25323,11 @@
         <v>-5320338.734804547</v>
       </c>
       <c r="H704" t="n">
-        <v>2</v>
-      </c>
-      <c r="I704" t="n">
-        <v>5.82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I704" t="inlineStr"/>
       <c r="J704" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K704" t="inlineStr">
         <is>
@@ -24348,13 +25362,11 @@
         <v>-5188054.556204547</v>
       </c>
       <c r="H705" t="n">
-        <v>2</v>
-      </c>
-      <c r="I705" t="n">
-        <v>5.821</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I705" t="inlineStr"/>
       <c r="J705" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K705" t="inlineStr">
         <is>
@@ -24389,13 +25401,11 @@
         <v>-5186054.556204547</v>
       </c>
       <c r="H706" t="n">
-        <v>2</v>
-      </c>
-      <c r="I706" t="n">
-        <v>5.823</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I706" t="inlineStr"/>
       <c r="J706" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K706" t="inlineStr">
         <is>
@@ -24430,13 +25440,11 @@
         <v>-5478506.585904547</v>
       </c>
       <c r="H707" t="n">
-        <v>2</v>
-      </c>
-      <c r="I707" t="n">
-        <v>5.833</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I707" t="inlineStr"/>
       <c r="J707" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K707" t="inlineStr">
         <is>
@@ -24471,13 +25479,11 @@
         <v>-5478506.585904547</v>
       </c>
       <c r="H708" t="n">
-        <v>2</v>
-      </c>
-      <c r="I708" t="n">
-        <v>5.825</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I708" t="inlineStr"/>
       <c r="J708" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K708" t="inlineStr">
         <is>
@@ -24512,13 +25518,11 @@
         <v>-5186498.948304547</v>
       </c>
       <c r="H709" t="n">
-        <v>2</v>
-      </c>
-      <c r="I709" t="n">
-        <v>5.825</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I709" t="inlineStr"/>
       <c r="J709" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K709" t="inlineStr">
         <is>
@@ -24553,13 +25557,11 @@
         <v>-5362094.279304547</v>
       </c>
       <c r="H710" t="n">
-        <v>2</v>
-      </c>
-      <c r="I710" t="n">
-        <v>5.832</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I710" t="inlineStr"/>
       <c r="J710" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K710" t="inlineStr">
         <is>
@@ -24594,13 +25596,11 @@
         <v>-5552245.898104548</v>
       </c>
       <c r="H711" t="n">
-        <v>2</v>
-      </c>
-      <c r="I711" t="n">
-        <v>5.825</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I711" t="inlineStr"/>
       <c r="J711" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K711" t="inlineStr">
         <is>
@@ -24635,13 +25635,11 @@
         <v>-5336667.522004548</v>
       </c>
       <c r="H712" t="n">
-        <v>2</v>
-      </c>
-      <c r="I712" t="n">
-        <v>5.823</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I712" t="inlineStr"/>
       <c r="J712" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K712" t="inlineStr">
         <is>
@@ -24676,13 +25674,11 @@
         <v>-5133045.190804548</v>
       </c>
       <c r="H713" t="n">
-        <v>2</v>
-      </c>
-      <c r="I713" t="n">
-        <v>5.824</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I713" t="inlineStr"/>
       <c r="J713" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K713" t="inlineStr">
         <is>
@@ -24717,13 +25713,11 @@
         <v>-5707233.682604548</v>
       </c>
       <c r="H714" t="n">
-        <v>2</v>
-      </c>
-      <c r="I714" t="n">
-        <v>5.831</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I714" t="inlineStr"/>
       <c r="J714" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K714" t="inlineStr">
         <is>
@@ -24758,13 +25752,11 @@
         <v>-5616008.345904548</v>
       </c>
       <c r="H715" t="n">
-        <v>2</v>
-      </c>
-      <c r="I715" t="n">
-        <v>5.806</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I715" t="inlineStr"/>
       <c r="J715" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K715" t="inlineStr">
         <is>
@@ -24799,13 +25791,11 @@
         <v>-5726308.309304547</v>
       </c>
       <c r="H716" t="n">
-        <v>2</v>
-      </c>
-      <c r="I716" t="n">
-        <v>5.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I716" t="inlineStr"/>
       <c r="J716" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K716" t="inlineStr">
         <is>
@@ -24840,13 +25830,11 @@
         <v>-5911087.735404547</v>
       </c>
       <c r="H717" t="n">
-        <v>2</v>
-      </c>
-      <c r="I717" t="n">
-        <v>5.82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I717" t="inlineStr"/>
       <c r="J717" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K717" t="inlineStr">
         <is>
@@ -24881,13 +25869,11 @@
         <v>-6107981.931004548</v>
       </c>
       <c r="H718" t="n">
-        <v>2</v>
-      </c>
-      <c r="I718" t="n">
-        <v>5.817</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I718" t="inlineStr"/>
       <c r="J718" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K718" t="inlineStr">
         <is>
@@ -24922,13 +25908,11 @@
         <v>-6007768.090504548</v>
       </c>
       <c r="H719" t="n">
-        <v>2</v>
-      </c>
-      <c r="I719" t="n">
-        <v>5.814</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I719" t="inlineStr"/>
       <c r="J719" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K719" t="inlineStr">
         <is>
@@ -24963,13 +25947,11 @@
         <v>-6184607.512804547</v>
       </c>
       <c r="H720" t="n">
-        <v>2</v>
-      </c>
-      <c r="I720" t="n">
-        <v>5.825</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I720" t="inlineStr"/>
       <c r="J720" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K720" t="inlineStr">
         <is>
@@ -25008,7 +25990,7 @@
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K721" t="inlineStr">
         <is>
@@ -25047,7 +26029,7 @@
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K722" t="inlineStr">
         <is>
@@ -25086,7 +26068,7 @@
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K723" t="inlineStr">
         <is>
@@ -25125,7 +26107,7 @@
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K724" t="inlineStr">
         <is>
@@ -25164,7 +26146,7 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K725" t="inlineStr">
         <is>
@@ -25203,7 +26185,7 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K726" t="inlineStr">
         <is>
@@ -25242,7 +26224,7 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K727" t="inlineStr">
         <is>
@@ -25281,7 +26263,7 @@
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K728" t="inlineStr">
         <is>
@@ -25320,7 +26302,7 @@
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K729" t="inlineStr">
         <is>
@@ -25355,13 +26337,11 @@
         <v>-4129212.103004548</v>
       </c>
       <c r="H730" t="n">
-        <v>2</v>
-      </c>
-      <c r="I730" t="n">
-        <v>5.84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I730" t="inlineStr"/>
       <c r="J730" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K730" t="inlineStr">
         <is>
@@ -25400,7 +26380,7 @@
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K731" t="inlineStr">
         <is>
@@ -25439,7 +26419,7 @@
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K732" t="inlineStr">
         <is>
@@ -25478,7 +26458,7 @@
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K733" t="inlineStr">
         <is>
@@ -25517,7 +26497,7 @@
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K734" t="inlineStr">
         <is>
@@ -25556,7 +26536,7 @@
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K735" t="inlineStr">
         <is>
@@ -25595,7 +26575,7 @@
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K736" t="inlineStr">
         <is>
@@ -25634,7 +26614,7 @@
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K737" t="inlineStr">
         <is>
@@ -25673,7 +26653,7 @@
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K738" t="inlineStr">
         <is>
@@ -25712,7 +26692,7 @@
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K739" t="inlineStr">
         <is>
@@ -25751,7 +26731,7 @@
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K740" t="inlineStr">
         <is>
@@ -25790,7 +26770,7 @@
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K741" t="inlineStr">
         <is>
@@ -25829,7 +26809,7 @@
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K742" t="inlineStr">
         <is>
@@ -25868,7 +26848,7 @@
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K743" t="inlineStr">
         <is>
@@ -25907,7 +26887,7 @@
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K744" t="inlineStr">
         <is>
@@ -25946,7 +26926,7 @@
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K745" t="inlineStr">
         <is>
@@ -25985,7 +26965,7 @@
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K746" t="inlineStr">
         <is>
@@ -26024,7 +27004,7 @@
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K747" t="inlineStr">
         <is>
@@ -26063,7 +27043,7 @@
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K748" t="inlineStr">
         <is>
@@ -26102,7 +27082,7 @@
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K749" t="inlineStr">
         <is>
@@ -26141,7 +27121,7 @@
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K750" t="inlineStr">
         <is>
@@ -26180,7 +27160,7 @@
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K751" t="inlineStr">
         <is>
@@ -26219,7 +27199,7 @@
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K752" t="inlineStr">
         <is>
@@ -26258,7 +27238,7 @@
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K753" t="inlineStr">
         <is>
@@ -26297,7 +27277,7 @@
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K754" t="inlineStr">
         <is>
@@ -26336,7 +27316,7 @@
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="n">
-        <v>5.832</v>
+        <v>5.796</v>
       </c>
       <c r="K755" t="inlineStr">
         <is>
@@ -26349,6 +27329,6 @@
       <c r="M755" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest XSR.xlsx
+++ b/BackTest/2020-01-22 BackTest XSR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -781,7 +781,7 @@
         <v>-1749046.0069</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-1407698.666</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-1840313.1627</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-2029109.2225</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-2029109.2225</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-2028997.4217</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-1629277.9562</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-2225058.8672</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-2224609.1208</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-1839522.1494</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-1839300.1494</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-1463808.0189</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-1463584.0189</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-1692347.109</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-1692347.109</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-2066568.5752</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-2066568.5752</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-2372429.3123</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-2372429.3123</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-2372429.3123</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-2112157.2992</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-2112046.2992</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-1858642.3133</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-1858409.3133</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-2081289.4853</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-1887395.0097</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-1464635.5264</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-1464550.4013</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-1726114.8184</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-1726014.8184</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-1916042.6705</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-1621537.4708</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-1621537.4708</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-2079392.6178</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-2758091.8627</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-3028562.1101</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-3626809.8047</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-4027925.9256</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-4060125.0665</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-4060125.0665</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-4060125.0665</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-4458575.1798</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-4799666.8813</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-5031730.362600001</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-5031730.362600001</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-5067832.411</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-5067832.411</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-5109525.1673</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-4713987.2289</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-4713987.2289</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-4378658.5307</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-4658786.7871</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-4983190.053300001</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-4550114.478100001</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-4550114.478100001</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-4550114.478100001</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-4236745.018300001</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-3936352.9279</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-3622580.8358</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-3622580.8358</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-3622351.911100001</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-3300513.883595537</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-3482390.571895537</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-3107876.032295537</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-2886395.806495537</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-3220778.142095537</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-3201106.616195537</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-3500163.831495537</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-3107509.217995537</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-3960076.195995537</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-3497667.228695537</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-3510246.895695537</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-3510246.895695537</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-3844856.544695537</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-4660266.054695536</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-4660266.054695536</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-5114534.890195536</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-5476593.076895537</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-4965360.228895537</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-5315839.662995537</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-5465839.662995537</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-5150694.732995537</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-5218804.361195537</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-5218804.361195537</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-5353798.679595537</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-7215825.91062534</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-7224613.942025341</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-6942111.717125341</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -14311,10 +14311,14 @@
         <v>-7052610.853503493</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
-      </c>
-      <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I422" t="n">
+        <v>5.823</v>
+      </c>
+      <c r="J422" t="n">
+        <v>5.823</v>
+      </c>
       <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
@@ -14344,11 +14348,19 @@
         <v>-7051683.363903493</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
-      </c>
-      <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I423" t="n">
+        <v>5.813</v>
+      </c>
+      <c r="J423" t="n">
+        <v>5.823</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14380,8 +14392,14 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>5.823</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14413,8 +14431,14 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>5.823</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14446,8 +14470,14 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>5.823</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14476,11 +14506,19 @@
         <v>-7180207.532803493</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
-      </c>
-      <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I427" t="n">
+        <v>5.792</v>
+      </c>
+      <c r="J427" t="n">
+        <v>5.823</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14512,8 +14550,14 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>5.823</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14548,9 +14592,13 @@
         <v>5.796</v>
       </c>
       <c r="J429" t="n">
-        <v>5.796</v>
-      </c>
-      <c r="K429" t="inlineStr"/>
+        <v>5.823</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14585,11 +14633,11 @@
         <v>5.809</v>
       </c>
       <c r="J430" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K430" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L430" t="n">
@@ -14626,11 +14674,11 @@
         <v>5.804</v>
       </c>
       <c r="J431" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K431" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L431" t="n">
@@ -14667,11 +14715,11 @@
         <v>5.808</v>
       </c>
       <c r="J432" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K432" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L432" t="n">
@@ -14708,7 +14756,7 @@
         <v>5.806</v>
       </c>
       <c r="J433" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K433" t="inlineStr">
         <is>
@@ -14747,7 +14795,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K434" t="inlineStr">
         <is>
@@ -14782,11 +14830,13 @@
         <v>-8963480.138803493</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
-      </c>
-      <c r="I435" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I435" t="n">
+        <v>5.803</v>
+      </c>
       <c r="J435" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K435" t="inlineStr">
         <is>
@@ -14821,11 +14871,13 @@
         <v>-9122872.821203493</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
-      </c>
-      <c r="I436" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I436" t="n">
+        <v>5.804</v>
+      </c>
       <c r="J436" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K436" t="inlineStr">
         <is>
@@ -14860,11 +14912,13 @@
         <v>-8702851.467203492</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
-      </c>
-      <c r="I437" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I437" t="n">
+        <v>5.803</v>
+      </c>
       <c r="J437" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K437" t="inlineStr">
         <is>
@@ -14903,7 +14957,7 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K438" t="inlineStr">
         <is>
@@ -14942,7 +14996,7 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K439" t="inlineStr">
         <is>
@@ -14981,7 +15035,7 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K440" t="inlineStr">
         <is>
@@ -15016,13 +15070,11 @@
         <v>-8224210.748403492</v>
       </c>
       <c r="H441" t="n">
-        <v>1</v>
-      </c>
-      <c r="I441" t="n">
-        <v>5.822</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I441" t="inlineStr"/>
       <c r="J441" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K441" t="inlineStr">
         <is>
@@ -15061,7 +15113,7 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K442" t="inlineStr">
         <is>
@@ -15100,7 +15152,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K443" t="inlineStr">
         <is>
@@ -15139,7 +15191,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K444" t="inlineStr">
         <is>
@@ -15178,7 +15230,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K445" t="inlineStr">
         <is>
@@ -15217,7 +15269,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K446" t="inlineStr">
         <is>
@@ -15256,7 +15308,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K447" t="inlineStr">
         <is>
@@ -15295,7 +15347,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K448" t="inlineStr">
         <is>
@@ -15334,7 +15386,7 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K449" t="inlineStr">
         <is>
@@ -15373,7 +15425,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K450" t="inlineStr">
         <is>
@@ -15412,7 +15464,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K451" t="inlineStr">
         <is>
@@ -15451,7 +15503,7 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K452" t="inlineStr">
         <is>
@@ -15490,7 +15542,7 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K453" t="inlineStr">
         <is>
@@ -15529,7 +15581,7 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K454" t="inlineStr">
         <is>
@@ -15568,7 +15620,7 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K455" t="inlineStr">
         <is>
@@ -15607,7 +15659,7 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K456" t="inlineStr">
         <is>
@@ -15646,7 +15698,7 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K457" t="inlineStr">
         <is>
@@ -15685,7 +15737,7 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K458" t="inlineStr">
         <is>
@@ -15724,7 +15776,7 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K459" t="inlineStr">
         <is>
@@ -15763,7 +15815,7 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K460" t="inlineStr">
         <is>
@@ -15802,7 +15854,7 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K461" t="inlineStr">
         <is>
@@ -15841,7 +15893,7 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K462" t="inlineStr">
         <is>
@@ -15880,7 +15932,7 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K463" t="inlineStr">
         <is>
@@ -15915,13 +15967,11 @@
         <v>-7836864.084803495</v>
       </c>
       <c r="H464" t="n">
-        <v>1</v>
-      </c>
-      <c r="I464" t="n">
-        <v>5.82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I464" t="inlineStr"/>
       <c r="J464" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K464" t="inlineStr">
         <is>
@@ -15960,7 +16010,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K465" t="inlineStr">
         <is>
@@ -15999,7 +16049,7 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K466" t="inlineStr">
         <is>
@@ -16038,7 +16088,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K467" t="inlineStr">
         <is>
@@ -16073,13 +16123,11 @@
         <v>-7776986.853503495</v>
       </c>
       <c r="H468" t="n">
-        <v>1</v>
-      </c>
-      <c r="I468" t="n">
-        <v>5.808</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I468" t="inlineStr"/>
       <c r="J468" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K468" t="inlineStr">
         <is>
@@ -16118,7 +16166,7 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K469" t="inlineStr">
         <is>
@@ -16153,13 +16201,11 @@
         <v>-7777655.072903495</v>
       </c>
       <c r="H470" t="n">
-        <v>1</v>
-      </c>
-      <c r="I470" t="n">
-        <v>5.811</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I470" t="inlineStr"/>
       <c r="J470" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K470" t="inlineStr">
         <is>
@@ -16198,7 +16244,7 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K471" t="inlineStr">
         <is>
@@ -16237,7 +16283,7 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K472" t="inlineStr">
         <is>
@@ -16276,7 +16322,7 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K473" t="inlineStr">
         <is>
@@ -16315,7 +16361,7 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K474" t="inlineStr">
         <is>
@@ -16354,7 +16400,7 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K475" t="inlineStr">
         <is>
@@ -16393,7 +16439,7 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K476" t="inlineStr">
         <is>
@@ -16432,7 +16478,7 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K477" t="inlineStr">
         <is>
@@ -16467,13 +16513,11 @@
         <v>-7491376.848503496</v>
       </c>
       <c r="H478" t="n">
-        <v>1</v>
-      </c>
-      <c r="I478" t="n">
-        <v>5.803</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I478" t="inlineStr"/>
       <c r="J478" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K478" t="inlineStr">
         <is>
@@ -16512,7 +16556,7 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K479" t="inlineStr">
         <is>
@@ -16551,7 +16595,7 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K480" t="inlineStr">
         <is>
@@ -16590,7 +16634,7 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K481" t="inlineStr">
         <is>
@@ -16629,7 +16673,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K482" t="inlineStr">
         <is>
@@ -16668,7 +16712,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K483" t="inlineStr">
         <is>
@@ -16707,7 +16751,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K484" t="inlineStr">
         <is>
@@ -16746,7 +16790,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K485" t="inlineStr">
         <is>
@@ -16785,7 +16829,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K486" t="inlineStr">
         <is>
@@ -16824,7 +16868,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K487" t="inlineStr">
         <is>
@@ -16859,13 +16903,11 @@
         <v>-7001282.286303496</v>
       </c>
       <c r="H488" t="n">
-        <v>1</v>
-      </c>
-      <c r="I488" t="n">
-        <v>5.812</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I488" t="inlineStr"/>
       <c r="J488" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K488" t="inlineStr">
         <is>
@@ -16900,13 +16942,11 @@
         <v>-6805200.079003496</v>
       </c>
       <c r="H489" t="n">
-        <v>1</v>
-      </c>
-      <c r="I489" t="n">
-        <v>5.811</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I489" t="inlineStr"/>
       <c r="J489" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K489" t="inlineStr">
         <is>
@@ -16941,13 +16981,11 @@
         <v>-6953756.296403497</v>
       </c>
       <c r="H490" t="n">
-        <v>1</v>
-      </c>
-      <c r="I490" t="n">
-        <v>5.845</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I490" t="inlineStr"/>
       <c r="J490" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K490" t="inlineStr">
         <is>
@@ -16986,7 +17024,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K491" t="inlineStr">
         <is>
@@ -17025,7 +17063,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K492" t="inlineStr">
         <is>
@@ -17064,7 +17102,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K493" t="inlineStr">
         <is>
@@ -17103,7 +17141,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K494" t="inlineStr">
         <is>
@@ -17142,7 +17180,7 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K495" t="inlineStr">
         <is>
@@ -17181,7 +17219,7 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K496" t="inlineStr">
         <is>
@@ -17220,7 +17258,7 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K497" t="inlineStr">
         <is>
@@ -17259,7 +17297,7 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K498" t="inlineStr">
         <is>
@@ -17298,7 +17336,7 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K499" t="inlineStr">
         <is>
@@ -17337,7 +17375,7 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K500" t="inlineStr">
         <is>
@@ -17376,7 +17414,7 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K501" t="inlineStr">
         <is>
@@ -17415,7 +17453,7 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K502" t="inlineStr">
         <is>
@@ -17454,7 +17492,7 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K503" t="inlineStr">
         <is>
@@ -17493,7 +17531,7 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K504" t="inlineStr">
         <is>
@@ -17532,7 +17570,7 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K505" t="inlineStr">
         <is>
@@ -17571,7 +17609,7 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K506" t="inlineStr">
         <is>
@@ -17610,7 +17648,7 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K507" t="inlineStr">
         <is>
@@ -17649,7 +17687,7 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K508" t="inlineStr">
         <is>
@@ -17688,7 +17726,7 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K509" t="inlineStr">
         <is>
@@ -17727,7 +17765,7 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K510" t="inlineStr">
         <is>
@@ -17766,7 +17804,7 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K511" t="inlineStr">
         <is>
@@ -17805,7 +17843,7 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K512" t="inlineStr">
         <is>
@@ -17844,7 +17882,7 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K513" t="inlineStr">
         <is>
@@ -17883,7 +17921,7 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K514" t="inlineStr">
         <is>
@@ -17922,7 +17960,7 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K515" t="inlineStr">
         <is>
@@ -17961,7 +17999,7 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K516" t="inlineStr">
         <is>
@@ -18000,7 +18038,7 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K517" t="inlineStr">
         <is>
@@ -18039,7 +18077,7 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K518" t="inlineStr">
         <is>
@@ -18078,7 +18116,7 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K519" t="inlineStr">
         <is>
@@ -18117,7 +18155,7 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K520" t="inlineStr">
         <is>
@@ -18156,7 +18194,7 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K521" t="inlineStr">
         <is>
@@ -18195,7 +18233,7 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K522" t="inlineStr">
         <is>
@@ -18234,7 +18272,7 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K523" t="inlineStr">
         <is>
@@ -18273,7 +18311,7 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K524" t="inlineStr">
         <is>
@@ -18312,7 +18350,7 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K525" t="inlineStr">
         <is>
@@ -18351,7 +18389,7 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K526" t="inlineStr">
         <is>
@@ -18390,7 +18428,7 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K527" t="inlineStr">
         <is>
@@ -18429,7 +18467,7 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K528" t="inlineStr">
         <is>
@@ -18468,7 +18506,7 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K529" t="inlineStr">
         <is>
@@ -18507,7 +18545,7 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K530" t="inlineStr">
         <is>
@@ -18546,7 +18584,7 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K531" t="inlineStr">
         <is>
@@ -18585,7 +18623,7 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K532" t="inlineStr">
         <is>
@@ -18624,7 +18662,7 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K533" t="inlineStr">
         <is>
@@ -18663,7 +18701,7 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K534" t="inlineStr">
         <is>
@@ -18702,7 +18740,7 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K535" t="inlineStr">
         <is>
@@ -18741,7 +18779,7 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K536" t="inlineStr">
         <is>
@@ -18780,7 +18818,7 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K537" t="inlineStr">
         <is>
@@ -18819,7 +18857,7 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K538" t="inlineStr">
         <is>
@@ -18858,7 +18896,7 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K539" t="inlineStr">
         <is>
@@ -18897,7 +18935,7 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K540" t="inlineStr">
         <is>
@@ -18936,7 +18974,7 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K541" t="inlineStr">
         <is>
@@ -18975,7 +19013,7 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K542" t="inlineStr">
         <is>
@@ -19014,7 +19052,7 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K543" t="inlineStr">
         <is>
@@ -19053,7 +19091,7 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K544" t="inlineStr">
         <is>
@@ -19092,7 +19130,7 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K545" t="inlineStr">
         <is>
@@ -19131,7 +19169,7 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K546" t="inlineStr">
         <is>
@@ -19170,7 +19208,7 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K547" t="inlineStr">
         <is>
@@ -19209,7 +19247,7 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K548" t="inlineStr">
         <is>
@@ -19248,7 +19286,7 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K549" t="inlineStr">
         <is>
@@ -19287,7 +19325,7 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K550" t="inlineStr">
         <is>
@@ -19326,7 +19364,7 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K551" t="inlineStr">
         <is>
@@ -19365,7 +19403,7 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K552" t="inlineStr">
         <is>
@@ -19404,7 +19442,7 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K553" t="inlineStr">
         <is>
@@ -19443,7 +19481,7 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K554" t="inlineStr">
         <is>
@@ -19482,7 +19520,7 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K555" t="inlineStr">
         <is>
@@ -19521,7 +19559,7 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K556" t="inlineStr">
         <is>
@@ -19560,7 +19598,7 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K557" t="inlineStr">
         <is>
@@ -19599,7 +19637,7 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K558" t="inlineStr">
         <is>
@@ -19638,7 +19676,7 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K559" t="inlineStr">
         <is>
@@ -19677,7 +19715,7 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K560" t="inlineStr">
         <is>
@@ -19716,7 +19754,7 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K561" t="inlineStr">
         <is>
@@ -19755,7 +19793,7 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K562" t="inlineStr">
         <is>
@@ -19794,7 +19832,7 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K563" t="inlineStr">
         <is>
@@ -19833,7 +19871,7 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K564" t="inlineStr">
         <is>
@@ -19872,7 +19910,7 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K565" t="inlineStr">
         <is>
@@ -19911,7 +19949,7 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K566" t="inlineStr">
         <is>
@@ -19950,7 +19988,7 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K567" t="inlineStr">
         <is>
@@ -19989,7 +20027,7 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K568" t="inlineStr">
         <is>
@@ -20028,7 +20066,7 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K569" t="inlineStr">
         <is>
@@ -20067,7 +20105,7 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K570" t="inlineStr">
         <is>
@@ -20106,7 +20144,7 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K571" t="inlineStr">
         <is>
@@ -20145,7 +20183,7 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K572" t="inlineStr">
         <is>
@@ -20184,7 +20222,7 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K573" t="inlineStr">
         <is>
@@ -20223,7 +20261,7 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K574" t="inlineStr">
         <is>
@@ -20262,7 +20300,7 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K575" t="inlineStr">
         <is>
@@ -20301,7 +20339,7 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K576" t="inlineStr">
         <is>
@@ -20340,7 +20378,7 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K577" t="inlineStr">
         <is>
@@ -20379,7 +20417,7 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K578" t="inlineStr">
         <is>
@@ -20418,7 +20456,7 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K579" t="inlineStr">
         <is>
@@ -20457,7 +20495,7 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K580" t="inlineStr">
         <is>
@@ -20496,7 +20534,7 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K581" t="inlineStr">
         <is>
@@ -20535,7 +20573,7 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K582" t="inlineStr">
         <is>
@@ -20574,7 +20612,7 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K583" t="inlineStr">
         <is>
@@ -20613,7 +20651,7 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K584" t="inlineStr">
         <is>
@@ -20652,7 +20690,7 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K585" t="inlineStr">
         <is>
@@ -20691,7 +20729,7 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K586" t="inlineStr">
         <is>
@@ -20730,7 +20768,7 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K587" t="inlineStr">
         <is>
@@ -20769,7 +20807,7 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K588" t="inlineStr">
         <is>
@@ -20808,7 +20846,7 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K589" t="inlineStr">
         <is>
@@ -20847,7 +20885,7 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K590" t="inlineStr">
         <is>
@@ -20886,7 +20924,7 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K591" t="inlineStr">
         <is>
@@ -20925,7 +20963,7 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K592" t="inlineStr">
         <is>
@@ -20964,7 +21002,7 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K593" t="inlineStr">
         <is>
@@ -21003,7 +21041,7 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K594" t="inlineStr">
         <is>
@@ -21042,7 +21080,7 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K595" t="inlineStr">
         <is>
@@ -21081,7 +21119,7 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K596" t="inlineStr">
         <is>
@@ -21120,7 +21158,7 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K597" t="inlineStr">
         <is>
@@ -21159,7 +21197,7 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K598" t="inlineStr">
         <is>
@@ -21198,7 +21236,7 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K599" t="inlineStr">
         <is>
@@ -21237,7 +21275,7 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K600" t="inlineStr">
         <is>
@@ -21276,7 +21314,7 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K601" t="inlineStr">
         <is>
@@ -21315,7 +21353,7 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K602" t="inlineStr">
         <is>
@@ -21354,7 +21392,7 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K603" t="inlineStr">
         <is>
@@ -21393,7 +21431,7 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K604" t="inlineStr">
         <is>
@@ -21432,7 +21470,7 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K605" t="inlineStr">
         <is>
@@ -21471,7 +21509,7 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K606" t="inlineStr">
         <is>
@@ -21510,7 +21548,7 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K607" t="inlineStr">
         <is>
@@ -21549,7 +21587,7 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K608" t="inlineStr">
         <is>
@@ -21588,7 +21626,7 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K609" t="inlineStr">
         <is>
@@ -21627,7 +21665,7 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K610" t="inlineStr">
         <is>
@@ -21666,7 +21704,7 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K611" t="inlineStr">
         <is>
@@ -21705,7 +21743,7 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K612" t="inlineStr">
         <is>
@@ -21744,7 +21782,7 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K613" t="inlineStr">
         <is>
@@ -21783,7 +21821,7 @@
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K614" t="inlineStr">
         <is>
@@ -21822,7 +21860,7 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K615" t="inlineStr">
         <is>
@@ -21861,7 +21899,7 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K616" t="inlineStr">
         <is>
@@ -21900,7 +21938,7 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K617" t="inlineStr">
         <is>
@@ -21939,7 +21977,7 @@
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K618" t="inlineStr">
         <is>
@@ -21978,7 +22016,7 @@
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K619" t="inlineStr">
         <is>
@@ -22017,7 +22055,7 @@
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K620" t="inlineStr">
         <is>
@@ -22056,7 +22094,7 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K621" t="inlineStr">
         <is>
@@ -22095,7 +22133,7 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K622" t="inlineStr">
         <is>
@@ -22134,7 +22172,7 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K623" t="inlineStr">
         <is>
@@ -22173,7 +22211,7 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K624" t="inlineStr">
         <is>
@@ -22212,7 +22250,7 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K625" t="inlineStr">
         <is>
@@ -22251,7 +22289,7 @@
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K626" t="inlineStr">
         <is>
@@ -22290,7 +22328,7 @@
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K627" t="inlineStr">
         <is>
@@ -22329,7 +22367,7 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K628" t="inlineStr">
         <is>
@@ -22368,7 +22406,7 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K629" t="inlineStr">
         <is>
@@ -22407,7 +22445,7 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K630" t="inlineStr">
         <is>
@@ -22446,7 +22484,7 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K631" t="inlineStr">
         <is>
@@ -22485,7 +22523,7 @@
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K632" t="inlineStr">
         <is>
@@ -22524,7 +22562,7 @@
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K633" t="inlineStr">
         <is>
@@ -22563,7 +22601,7 @@
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K634" t="inlineStr">
         <is>
@@ -22602,7 +22640,7 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K635" t="inlineStr">
         <is>
@@ -22641,7 +22679,7 @@
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K636" t="inlineStr">
         <is>
@@ -22680,7 +22718,7 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K637" t="inlineStr">
         <is>
@@ -22719,7 +22757,7 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K638" t="inlineStr">
         <is>
@@ -22758,7 +22796,7 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K639" t="inlineStr">
         <is>
@@ -22797,7 +22835,7 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K640" t="inlineStr">
         <is>
@@ -22832,11 +22870,13 @@
         <v>-6381382.129719684</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
-      </c>
-      <c r="I641" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I641" t="n">
+        <v>5.806</v>
+      </c>
       <c r="J641" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K641" t="inlineStr">
         <is>
@@ -22877,7 +22917,7 @@
         <v>5.81</v>
       </c>
       <c r="J642" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K642" t="inlineStr">
         <is>
@@ -22916,7 +22956,7 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K643" t="inlineStr">
         <is>
@@ -22951,13 +22991,11 @@
         <v>-6336539.048104546</v>
       </c>
       <c r="H644" t="n">
-        <v>1</v>
-      </c>
-      <c r="I644" t="n">
-        <v>5.809</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I644" t="inlineStr"/>
       <c r="J644" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K644" t="inlineStr">
         <is>
@@ -22996,7 +23034,7 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K645" t="inlineStr">
         <is>
@@ -23031,13 +23069,11 @@
         <v>-6493299.563004547</v>
       </c>
       <c r="H646" t="n">
-        <v>1</v>
-      </c>
-      <c r="I646" t="n">
-        <v>5.828</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I646" t="inlineStr"/>
       <c r="J646" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K646" t="inlineStr">
         <is>
@@ -23076,7 +23112,7 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K647" t="inlineStr">
         <is>
@@ -23111,13 +23147,11 @@
         <v>-6924450.999304547</v>
       </c>
       <c r="H648" t="n">
-        <v>1</v>
-      </c>
-      <c r="I648" t="n">
-        <v>5.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I648" t="inlineStr"/>
       <c r="J648" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K648" t="inlineStr">
         <is>
@@ -23152,13 +23186,11 @@
         <v>-7093826.262604547</v>
       </c>
       <c r="H649" t="n">
-        <v>1</v>
-      </c>
-      <c r="I649" t="n">
-        <v>5.801</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I649" t="inlineStr"/>
       <c r="J649" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K649" t="inlineStr">
         <is>
@@ -23193,13 +23225,11 @@
         <v>-7105186.219004546</v>
       </c>
       <c r="H650" t="n">
-        <v>1</v>
-      </c>
-      <c r="I650" t="n">
-        <v>5.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I650" t="inlineStr"/>
       <c r="J650" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K650" t="inlineStr">
         <is>
@@ -23234,13 +23264,11 @@
         <v>-7285351.254804546</v>
       </c>
       <c r="H651" t="n">
-        <v>1</v>
-      </c>
-      <c r="I651" t="n">
-        <v>5.799</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I651" t="inlineStr"/>
       <c r="J651" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K651" t="inlineStr">
         <is>
@@ -23275,13 +23303,11 @@
         <v>-7101771.050204546</v>
       </c>
       <c r="H652" t="n">
-        <v>1</v>
-      </c>
-      <c r="I652" t="n">
-        <v>5.795</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I652" t="inlineStr"/>
       <c r="J652" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K652" t="inlineStr">
         <is>
@@ -23316,13 +23342,11 @@
         <v>-6684280.462604546</v>
       </c>
       <c r="H653" t="n">
-        <v>1</v>
-      </c>
-      <c r="I653" t="n">
-        <v>5.805</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I653" t="inlineStr"/>
       <c r="J653" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K653" t="inlineStr">
         <is>
@@ -23357,13 +23381,11 @@
         <v>-6455507.620104546</v>
       </c>
       <c r="H654" t="n">
-        <v>1</v>
-      </c>
-      <c r="I654" t="n">
-        <v>5.815</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I654" t="inlineStr"/>
       <c r="J654" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K654" t="inlineStr">
         <is>
@@ -23398,13 +23420,11 @@
         <v>-6455740.620104546</v>
       </c>
       <c r="H655" t="n">
-        <v>1</v>
-      </c>
-      <c r="I655" t="n">
-        <v>5.816</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I655" t="inlineStr"/>
       <c r="J655" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K655" t="inlineStr">
         <is>
@@ -23439,13 +23459,11 @@
         <v>-6206762.958904546</v>
       </c>
       <c r="H656" t="n">
-        <v>1</v>
-      </c>
-      <c r="I656" t="n">
-        <v>5.811</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I656" t="inlineStr"/>
       <c r="J656" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K656" t="inlineStr">
         <is>
@@ -23480,13 +23498,11 @@
         <v>-6486337.912204546</v>
       </c>
       <c r="H657" t="n">
-        <v>1</v>
-      </c>
-      <c r="I657" t="n">
-        <v>5.821</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I657" t="inlineStr"/>
       <c r="J657" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K657" t="inlineStr">
         <is>
@@ -23521,13 +23537,11 @@
         <v>-6486337.912204546</v>
       </c>
       <c r="H658" t="n">
-        <v>1</v>
-      </c>
-      <c r="I658" t="n">
-        <v>5.811</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I658" t="inlineStr"/>
       <c r="J658" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K658" t="inlineStr">
         <is>
@@ -23562,13 +23576,11 @@
         <v>-6375097.530104546</v>
       </c>
       <c r="H659" t="n">
-        <v>1</v>
-      </c>
-      <c r="I659" t="n">
-        <v>5.811</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I659" t="inlineStr"/>
       <c r="J659" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K659" t="inlineStr">
         <is>
@@ -23607,7 +23619,7 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K660" t="inlineStr">
         <is>
@@ -23646,7 +23658,7 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K661" t="inlineStr">
         <is>
@@ -23685,7 +23697,7 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K662" t="inlineStr">
         <is>
@@ -23724,7 +23736,7 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K663" t="inlineStr">
         <is>
@@ -23763,7 +23775,7 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K664" t="inlineStr">
         <is>
@@ -23802,7 +23814,7 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K665" t="inlineStr">
         <is>
@@ -23841,7 +23853,7 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K666" t="inlineStr">
         <is>
@@ -23880,7 +23892,7 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K667" t="inlineStr">
         <is>
@@ -23919,7 +23931,7 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K668" t="inlineStr">
         <is>
@@ -23958,7 +23970,7 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K669" t="inlineStr">
         <is>
@@ -23997,7 +24009,7 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K670" t="inlineStr">
         <is>
@@ -24036,7 +24048,7 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K671" t="inlineStr">
         <is>
@@ -24075,7 +24087,7 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K672" t="inlineStr">
         <is>
@@ -24114,7 +24126,7 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K673" t="inlineStr">
         <is>
@@ -24153,7 +24165,7 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K674" t="inlineStr">
         <is>
@@ -24192,7 +24204,7 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K675" t="inlineStr">
         <is>
@@ -24231,7 +24243,7 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K676" t="inlineStr">
         <is>
@@ -24270,7 +24282,7 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K677" t="inlineStr">
         <is>
@@ -24309,7 +24321,7 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K678" t="inlineStr">
         <is>
@@ -24348,7 +24360,7 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K679" t="inlineStr">
         <is>
@@ -24387,7 +24399,7 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K680" t="inlineStr">
         <is>
@@ -24426,7 +24438,7 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K681" t="inlineStr">
         <is>
@@ -24465,7 +24477,7 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K682" t="inlineStr">
         <is>
@@ -24504,7 +24516,7 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K683" t="inlineStr">
         <is>
@@ -24543,7 +24555,7 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K684" t="inlineStr">
         <is>
@@ -24582,7 +24594,7 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K685" t="inlineStr">
         <is>
@@ -24621,7 +24633,7 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K686" t="inlineStr">
         <is>
@@ -24660,7 +24672,7 @@
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K687" t="inlineStr">
         <is>
@@ -24699,7 +24711,7 @@
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K688" t="inlineStr">
         <is>
@@ -24738,7 +24750,7 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K689" t="inlineStr">
         <is>
@@ -24777,7 +24789,7 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K690" t="inlineStr">
         <is>
@@ -24816,7 +24828,7 @@
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K691" t="inlineStr">
         <is>
@@ -24855,7 +24867,7 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K692" t="inlineStr">
         <is>
@@ -24894,7 +24906,7 @@
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K693" t="inlineStr">
         <is>
@@ -24933,7 +24945,7 @@
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K694" t="inlineStr">
         <is>
@@ -24972,7 +24984,7 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K695" t="inlineStr">
         <is>
@@ -25011,7 +25023,7 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K696" t="inlineStr">
         <is>
@@ -25050,7 +25062,7 @@
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K697" t="inlineStr">
         <is>
@@ -25089,7 +25101,7 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K698" t="inlineStr">
         <is>
@@ -25128,7 +25140,7 @@
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K699" t="inlineStr">
         <is>
@@ -25163,13 +25175,11 @@
         <v>-5798139.177204548</v>
       </c>
       <c r="H700" t="n">
-        <v>1</v>
-      </c>
-      <c r="I700" t="n">
-        <v>5.806</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I700" t="inlineStr"/>
       <c r="J700" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K700" t="inlineStr">
         <is>
@@ -25204,13 +25214,11 @@
         <v>-5650745.531004548</v>
       </c>
       <c r="H701" t="n">
-        <v>1</v>
-      </c>
-      <c r="I701" t="n">
-        <v>5.807</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I701" t="inlineStr"/>
       <c r="J701" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K701" t="inlineStr">
         <is>
@@ -25249,7 +25257,7 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K702" t="inlineStr">
         <is>
@@ -25288,7 +25296,7 @@
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K703" t="inlineStr">
         <is>
@@ -25327,7 +25335,7 @@
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K704" t="inlineStr">
         <is>
@@ -25366,7 +25374,7 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K705" t="inlineStr">
         <is>
@@ -25405,7 +25413,7 @@
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K706" t="inlineStr">
         <is>
@@ -25444,7 +25452,7 @@
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K707" t="inlineStr">
         <is>
@@ -25483,7 +25491,7 @@
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K708" t="inlineStr">
         <is>
@@ -25522,7 +25530,7 @@
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K709" t="inlineStr">
         <is>
@@ -25561,7 +25569,7 @@
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K710" t="inlineStr">
         <is>
@@ -25600,7 +25608,7 @@
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K711" t="inlineStr">
         <is>
@@ -25639,7 +25647,7 @@
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K712" t="inlineStr">
         <is>
@@ -25678,7 +25686,7 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K713" t="inlineStr">
         <is>
@@ -25717,7 +25725,7 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K714" t="inlineStr">
         <is>
@@ -25756,7 +25764,7 @@
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K715" t="inlineStr">
         <is>
@@ -25795,7 +25803,7 @@
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K716" t="inlineStr">
         <is>
@@ -25834,7 +25842,7 @@
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K717" t="inlineStr">
         <is>
@@ -25873,7 +25881,7 @@
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K718" t="inlineStr">
         <is>
@@ -25912,7 +25920,7 @@
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K719" t="inlineStr">
         <is>
@@ -25951,7 +25959,7 @@
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K720" t="inlineStr">
         <is>
@@ -25990,7 +25998,7 @@
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K721" t="inlineStr">
         <is>
@@ -26029,7 +26037,7 @@
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K722" t="inlineStr">
         <is>
@@ -26068,7 +26076,7 @@
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K723" t="inlineStr">
         <is>
@@ -26107,7 +26115,7 @@
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K724" t="inlineStr">
         <is>
@@ -26146,7 +26154,7 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K725" t="inlineStr">
         <is>
@@ -26185,7 +26193,7 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K726" t="inlineStr">
         <is>
@@ -26224,7 +26232,7 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K727" t="inlineStr">
         <is>
@@ -26263,7 +26271,7 @@
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K728" t="inlineStr">
         <is>
@@ -26302,7 +26310,7 @@
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K729" t="inlineStr">
         <is>
@@ -26341,7 +26349,7 @@
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K730" t="inlineStr">
         <is>
@@ -26380,7 +26388,7 @@
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K731" t="inlineStr">
         <is>
@@ -26419,7 +26427,7 @@
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K732" t="inlineStr">
         <is>
@@ -26458,7 +26466,7 @@
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K733" t="inlineStr">
         <is>
@@ -26497,7 +26505,7 @@
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K734" t="inlineStr">
         <is>
@@ -26536,7 +26544,7 @@
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K735" t="inlineStr">
         <is>
@@ -26575,7 +26583,7 @@
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K736" t="inlineStr">
         <is>
@@ -26614,7 +26622,7 @@
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K737" t="inlineStr">
         <is>
@@ -26653,7 +26661,7 @@
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K738" t="inlineStr">
         <is>
@@ -26692,7 +26700,7 @@
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K739" t="inlineStr">
         <is>
@@ -26731,7 +26739,7 @@
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K740" t="inlineStr">
         <is>
@@ -26770,7 +26778,7 @@
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K741" t="inlineStr">
         <is>
@@ -26809,7 +26817,7 @@
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K742" t="inlineStr">
         <is>
@@ -26848,7 +26856,7 @@
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K743" t="inlineStr">
         <is>
@@ -26887,7 +26895,7 @@
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K744" t="inlineStr">
         <is>
@@ -26926,7 +26934,7 @@
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K745" t="inlineStr">
         <is>
@@ -26965,7 +26973,7 @@
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K746" t="inlineStr">
         <is>
@@ -27004,7 +27012,7 @@
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K747" t="inlineStr">
         <is>
@@ -27043,7 +27051,7 @@
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K748" t="inlineStr">
         <is>
@@ -27082,7 +27090,7 @@
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K749" t="inlineStr">
         <is>
@@ -27121,7 +27129,7 @@
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K750" t="inlineStr">
         <is>
@@ -27160,7 +27168,7 @@
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K751" t="inlineStr">
         <is>
@@ -27199,7 +27207,7 @@
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K752" t="inlineStr">
         <is>
@@ -27238,7 +27246,7 @@
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K753" t="inlineStr">
         <is>
@@ -27277,7 +27285,7 @@
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K754" t="inlineStr">
         <is>
@@ -27316,7 +27324,7 @@
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="n">
-        <v>5.796</v>
+        <v>5.823</v>
       </c>
       <c r="K755" t="inlineStr">
         <is>
@@ -27329,6 +27337,6 @@
       <c r="M755" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest XSR.xlsx
+++ b/BackTest/2020-01-22 BackTest XSR.xlsx
@@ -3718,7 +3718,7 @@
         <v>-4041223.0143</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-3482390.571895537</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-3107876.032295537</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-2886395.806495537</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-3220778.142095537</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-3201106.616195537</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-3500163.831495537</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-3107509.217995537</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-3960076.195995537</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-3497667.228695537</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-3510246.895695537</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-3510246.895695537</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-3844856.544695537</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-4660266.054695536</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-7215825.91062534</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-7224613.942025341</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-6942111.717125341</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -14311,14 +14311,10 @@
         <v>-7052610.853503493</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
-      </c>
-      <c r="I422" t="n">
-        <v>5.823</v>
-      </c>
-      <c r="J422" t="n">
-        <v>5.823</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I422" t="inlineStr"/>
+      <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
@@ -14348,19 +14344,11 @@
         <v>-7051683.363903493</v>
       </c>
       <c r="H423" t="n">
-        <v>1</v>
-      </c>
-      <c r="I423" t="n">
-        <v>5.813</v>
-      </c>
-      <c r="J423" t="n">
-        <v>5.823</v>
-      </c>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I423" t="inlineStr"/>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14392,14 +14380,8 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>5.823</v>
-      </c>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14431,14 +14413,8 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>5.823</v>
-      </c>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14470,14 +14446,8 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>5.823</v>
-      </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14506,19 +14476,11 @@
         <v>-7180207.532803493</v>
       </c>
       <c r="H427" t="n">
-        <v>1</v>
-      </c>
-      <c r="I427" t="n">
-        <v>5.792</v>
-      </c>
-      <c r="J427" t="n">
-        <v>5.823</v>
-      </c>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I427" t="inlineStr"/>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14550,14 +14512,8 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>5.823</v>
-      </c>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14586,19 +14542,11 @@
         <v>-7224467.277603492</v>
       </c>
       <c r="H429" t="n">
-        <v>1</v>
-      </c>
-      <c r="I429" t="n">
-        <v>5.796</v>
-      </c>
-      <c r="J429" t="n">
-        <v>5.823</v>
-      </c>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I429" t="inlineStr"/>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14627,19 +14575,11 @@
         <v>-7378681.251403492</v>
       </c>
       <c r="H430" t="n">
-        <v>1</v>
-      </c>
-      <c r="I430" t="n">
-        <v>5.809</v>
-      </c>
-      <c r="J430" t="n">
-        <v>5.823</v>
-      </c>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I430" t="inlineStr"/>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14668,19 +14608,11 @@
         <v>-7257014.634603492</v>
       </c>
       <c r="H431" t="n">
-        <v>1</v>
-      </c>
-      <c r="I431" t="n">
-        <v>5.804</v>
-      </c>
-      <c r="J431" t="n">
-        <v>5.823</v>
-      </c>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I431" t="inlineStr"/>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14709,19 +14641,11 @@
         <v>-7447235.101503492</v>
       </c>
       <c r="H432" t="n">
-        <v>1</v>
-      </c>
-      <c r="I432" t="n">
-        <v>5.808</v>
-      </c>
-      <c r="J432" t="n">
-        <v>5.823</v>
-      </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I432" t="inlineStr"/>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14750,19 +14674,11 @@
         <v>-9203419.517203493</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
-      </c>
-      <c r="I433" t="n">
-        <v>5.806</v>
-      </c>
-      <c r="J433" t="n">
-        <v>5.823</v>
-      </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I433" t="inlineStr"/>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14794,14 +14710,8 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>5.823</v>
-      </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -14830,19 +14740,11 @@
         <v>-8963480.138803493</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
-      </c>
-      <c r="I435" t="n">
-        <v>5.803</v>
-      </c>
-      <c r="J435" t="n">
-        <v>5.823</v>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I435" t="inlineStr"/>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -14871,19 +14773,11 @@
         <v>-9122872.821203493</v>
       </c>
       <c r="H436" t="n">
-        <v>1</v>
-      </c>
-      <c r="I436" t="n">
-        <v>5.804</v>
-      </c>
-      <c r="J436" t="n">
-        <v>5.823</v>
-      </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I436" t="inlineStr"/>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -14912,19 +14806,11 @@
         <v>-8702851.467203492</v>
       </c>
       <c r="H437" t="n">
-        <v>1</v>
-      </c>
-      <c r="I437" t="n">
-        <v>5.803</v>
-      </c>
-      <c r="J437" t="n">
-        <v>5.823</v>
-      </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I437" t="inlineStr"/>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -14956,14 +14842,8 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>5.823</v>
-      </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -14995,14 +14875,8 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>5.823</v>
-      </c>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15034,14 +14908,8 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>5.823</v>
-      </c>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15073,14 +14941,8 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>5.823</v>
-      </c>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15112,14 +14974,8 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>5.823</v>
-      </c>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15151,14 +15007,8 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>5.823</v>
-      </c>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15190,14 +15040,8 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>5.823</v>
-      </c>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15229,14 +15073,8 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>5.823</v>
-      </c>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15268,14 +15106,8 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>5.823</v>
-      </c>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15307,14 +15139,8 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>5.823</v>
-      </c>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15346,14 +15172,8 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>5.823</v>
-      </c>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15385,14 +15205,8 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>5.823</v>
-      </c>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15424,14 +15238,8 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>5.823</v>
-      </c>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15463,14 +15271,8 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>5.823</v>
-      </c>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15502,14 +15304,8 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>5.823</v>
-      </c>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15541,14 +15337,8 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>5.823</v>
-      </c>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15580,14 +15370,8 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>5.823</v>
-      </c>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15619,14 +15403,8 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>5.823</v>
-      </c>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15658,14 +15436,8 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>5.823</v>
-      </c>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15697,14 +15469,8 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>5.823</v>
-      </c>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15736,14 +15502,8 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>5.823</v>
-      </c>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15775,14 +15535,8 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>5.823</v>
-      </c>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15814,14 +15568,8 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>5.823</v>
-      </c>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15853,14 +15601,8 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>5.823</v>
-      </c>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15892,14 +15634,8 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>5.823</v>
-      </c>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15928,17 +15664,15 @@
         <v>-7834386.712603495</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
-      </c>
-      <c r="I463" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I463" t="n">
+        <v>5.83</v>
+      </c>
       <c r="J463" t="n">
-        <v>5.823</v>
-      </c>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>5.83</v>
+      </c>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -15967,15 +15701,17 @@
         <v>-7836864.084803495</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
-      </c>
-      <c r="I464" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I464" t="n">
+        <v>5.82</v>
+      </c>
       <c r="J464" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K464" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L464" t="n">
@@ -16006,11 +15742,13 @@
         <v>-7963908.363403494</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
-      </c>
-      <c r="I465" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I465" t="n">
+        <v>5.817</v>
+      </c>
       <c r="J465" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K465" t="inlineStr">
         <is>
@@ -16045,11 +15783,13 @@
         <v>-7743339.725003495</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
-      </c>
-      <c r="I466" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I466" t="n">
+        <v>5.815</v>
+      </c>
       <c r="J466" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K466" t="inlineStr">
         <is>
@@ -16088,7 +15828,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K467" t="inlineStr">
         <is>
@@ -16127,7 +15867,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K468" t="inlineStr">
         <is>
@@ -16166,7 +15906,7 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K469" t="inlineStr">
         <is>
@@ -16205,7 +15945,7 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K470" t="inlineStr">
         <is>
@@ -16244,7 +15984,7 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K471" t="inlineStr">
         <is>
@@ -16279,11 +16019,13 @@
         <v>-7626946.833403495</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
-      </c>
-      <c r="I472" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I472" t="n">
+        <v>5.809</v>
+      </c>
       <c r="J472" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K472" t="inlineStr">
         <is>
@@ -16318,11 +16060,13 @@
         <v>-7899138.204903495</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
-      </c>
-      <c r="I473" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I473" t="n">
+        <v>5.829</v>
+      </c>
       <c r="J473" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K473" t="inlineStr">
         <is>
@@ -16357,11 +16101,13 @@
         <v>-7899138.204903495</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
-      </c>
-      <c r="I474" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I474" t="n">
+        <v>5.82</v>
+      </c>
       <c r="J474" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K474" t="inlineStr">
         <is>
@@ -16400,7 +16146,7 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K475" t="inlineStr">
         <is>
@@ -16439,7 +16185,7 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K476" t="inlineStr">
         <is>
@@ -16474,11 +16220,13 @@
         <v>-7739338.019003496</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
-      </c>
-      <c r="I477" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I477" t="n">
+        <v>5.803</v>
+      </c>
       <c r="J477" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K477" t="inlineStr">
         <is>
@@ -16513,11 +16261,13 @@
         <v>-7491376.848503496</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
-      </c>
-      <c r="I478" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I478" t="n">
+        <v>5.803</v>
+      </c>
       <c r="J478" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K478" t="inlineStr">
         <is>
@@ -16552,11 +16302,13 @@
         <v>-7657796.259603496</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
-      </c>
-      <c r="I479" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I479" t="n">
+        <v>5.829</v>
+      </c>
       <c r="J479" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K479" t="inlineStr">
         <is>
@@ -16591,11 +16343,13 @@
         <v>-7537256.427303496</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
-      </c>
-      <c r="I480" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I480" t="n">
+        <v>5.803</v>
+      </c>
       <c r="J480" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K480" t="inlineStr">
         <is>
@@ -16630,11 +16384,13 @@
         <v>-7165294.521003496</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
-      </c>
-      <c r="I481" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I481" t="n">
+        <v>5.821</v>
+      </c>
       <c r="J481" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K481" t="inlineStr">
         <is>
@@ -16673,7 +16429,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K482" t="inlineStr">
         <is>
@@ -16712,7 +16468,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K483" t="inlineStr">
         <is>
@@ -16751,7 +16507,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K484" t="inlineStr">
         <is>
@@ -16790,7 +16546,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K485" t="inlineStr">
         <is>
@@ -16829,7 +16585,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K486" t="inlineStr">
         <is>
@@ -16868,7 +16624,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K487" t="inlineStr">
         <is>
@@ -16903,11 +16659,13 @@
         <v>-7001282.286303496</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
-      </c>
-      <c r="I488" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I488" t="n">
+        <v>5.812</v>
+      </c>
       <c r="J488" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K488" t="inlineStr">
         <is>
@@ -16942,11 +16700,13 @@
         <v>-6805200.079003496</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
-      </c>
-      <c r="I489" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I489" t="n">
+        <v>5.811</v>
+      </c>
       <c r="J489" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K489" t="inlineStr">
         <is>
@@ -16985,7 +16745,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K490" t="inlineStr">
         <is>
@@ -17024,7 +16784,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K491" t="inlineStr">
         <is>
@@ -17063,7 +16823,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K492" t="inlineStr">
         <is>
@@ -17102,7 +16862,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K493" t="inlineStr">
         <is>
@@ -17141,7 +16901,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K494" t="inlineStr">
         <is>
@@ -17180,7 +16940,7 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K495" t="inlineStr">
         <is>
@@ -17219,7 +16979,7 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K496" t="inlineStr">
         <is>
@@ -17258,7 +17018,7 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K497" t="inlineStr">
         <is>
@@ -17297,7 +17057,7 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K498" t="inlineStr">
         <is>
@@ -17336,7 +17096,7 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K499" t="inlineStr">
         <is>
@@ -17375,7 +17135,7 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K500" t="inlineStr">
         <is>
@@ -17414,7 +17174,7 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K501" t="inlineStr">
         <is>
@@ -17453,7 +17213,7 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K502" t="inlineStr">
         <is>
@@ -17492,7 +17252,7 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K503" t="inlineStr">
         <is>
@@ -17531,7 +17291,7 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K504" t="inlineStr">
         <is>
@@ -17570,7 +17330,7 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K505" t="inlineStr">
         <is>
@@ -17609,7 +17369,7 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K506" t="inlineStr">
         <is>
@@ -17648,7 +17408,7 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K507" t="inlineStr">
         <is>
@@ -17687,7 +17447,7 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K508" t="inlineStr">
         <is>
@@ -17726,7 +17486,7 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K509" t="inlineStr">
         <is>
@@ -17765,7 +17525,7 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K510" t="inlineStr">
         <is>
@@ -17804,7 +17564,7 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K511" t="inlineStr">
         <is>
@@ -17843,7 +17603,7 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K512" t="inlineStr">
         <is>
@@ -17882,7 +17642,7 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K513" t="inlineStr">
         <is>
@@ -17921,7 +17681,7 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K514" t="inlineStr">
         <is>
@@ -17960,7 +17720,7 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K515" t="inlineStr">
         <is>
@@ -17999,7 +17759,7 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K516" t="inlineStr">
         <is>
@@ -18038,7 +17798,7 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K517" t="inlineStr">
         <is>
@@ -18077,7 +17837,7 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K518" t="inlineStr">
         <is>
@@ -18116,7 +17876,7 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K519" t="inlineStr">
         <is>
@@ -18155,7 +17915,7 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K520" t="inlineStr">
         <is>
@@ -18194,7 +17954,7 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K521" t="inlineStr">
         <is>
@@ -18233,7 +17993,7 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K522" t="inlineStr">
         <is>
@@ -18272,7 +18032,7 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K523" t="inlineStr">
         <is>
@@ -18311,7 +18071,7 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K524" t="inlineStr">
         <is>
@@ -18350,7 +18110,7 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K525" t="inlineStr">
         <is>
@@ -18389,7 +18149,7 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K526" t="inlineStr">
         <is>
@@ -18428,7 +18188,7 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K527" t="inlineStr">
         <is>
@@ -18467,7 +18227,7 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K528" t="inlineStr">
         <is>
@@ -18506,7 +18266,7 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K529" t="inlineStr">
         <is>
@@ -18545,7 +18305,7 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K530" t="inlineStr">
         <is>
@@ -18584,7 +18344,7 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K531" t="inlineStr">
         <is>
@@ -18623,7 +18383,7 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K532" t="inlineStr">
         <is>
@@ -18662,7 +18422,7 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K533" t="inlineStr">
         <is>
@@ -18701,7 +18461,7 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K534" t="inlineStr">
         <is>
@@ -18740,7 +18500,7 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K535" t="inlineStr">
         <is>
@@ -18779,7 +18539,7 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K536" t="inlineStr">
         <is>
@@ -18818,7 +18578,7 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K537" t="inlineStr">
         <is>
@@ -18857,7 +18617,7 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K538" t="inlineStr">
         <is>
@@ -18896,7 +18656,7 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K539" t="inlineStr">
         <is>
@@ -18935,7 +18695,7 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K540" t="inlineStr">
         <is>
@@ -18974,7 +18734,7 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K541" t="inlineStr">
         <is>
@@ -19013,7 +18773,7 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K542" t="inlineStr">
         <is>
@@ -19052,7 +18812,7 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K543" t="inlineStr">
         <is>
@@ -19091,7 +18851,7 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K544" t="inlineStr">
         <is>
@@ -19130,7 +18890,7 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K545" t="inlineStr">
         <is>
@@ -19169,7 +18929,7 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K546" t="inlineStr">
         <is>
@@ -19208,7 +18968,7 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K547" t="inlineStr">
         <is>
@@ -19247,7 +19007,7 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K548" t="inlineStr">
         <is>
@@ -19286,7 +19046,7 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K549" t="inlineStr">
         <is>
@@ -19325,7 +19085,7 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K550" t="inlineStr">
         <is>
@@ -19364,7 +19124,7 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K551" t="inlineStr">
         <is>
@@ -19403,7 +19163,7 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K552" t="inlineStr">
         <is>
@@ -19442,7 +19202,7 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K553" t="inlineStr">
         <is>
@@ -19481,7 +19241,7 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K554" t="inlineStr">
         <is>
@@ -19520,7 +19280,7 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K555" t="inlineStr">
         <is>
@@ -19559,7 +19319,7 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K556" t="inlineStr">
         <is>
@@ -19598,7 +19358,7 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K557" t="inlineStr">
         <is>
@@ -19637,7 +19397,7 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K558" t="inlineStr">
         <is>
@@ -19676,7 +19436,7 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K559" t="inlineStr">
         <is>
@@ -19715,7 +19475,7 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K560" t="inlineStr">
         <is>
@@ -19754,7 +19514,7 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K561" t="inlineStr">
         <is>
@@ -19793,7 +19553,7 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K562" t="inlineStr">
         <is>
@@ -19832,7 +19592,7 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K563" t="inlineStr">
         <is>
@@ -19871,7 +19631,7 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K564" t="inlineStr">
         <is>
@@ -19910,7 +19670,7 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K565" t="inlineStr">
         <is>
@@ -19949,7 +19709,7 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K566" t="inlineStr">
         <is>
@@ -19988,7 +19748,7 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K567" t="inlineStr">
         <is>
@@ -20027,7 +19787,7 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K568" t="inlineStr">
         <is>
@@ -20066,7 +19826,7 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K569" t="inlineStr">
         <is>
@@ -20105,7 +19865,7 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K570" t="inlineStr">
         <is>
@@ -20144,7 +19904,7 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K571" t="inlineStr">
         <is>
@@ -20183,7 +19943,7 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K572" t="inlineStr">
         <is>
@@ -20222,7 +19982,7 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K573" t="inlineStr">
         <is>
@@ -20261,7 +20021,7 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K574" t="inlineStr">
         <is>
@@ -20300,7 +20060,7 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K575" t="inlineStr">
         <is>
@@ -20339,7 +20099,7 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K576" t="inlineStr">
         <is>
@@ -20378,7 +20138,7 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K577" t="inlineStr">
         <is>
@@ -20417,7 +20177,7 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K578" t="inlineStr">
         <is>
@@ -20456,7 +20216,7 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K579" t="inlineStr">
         <is>
@@ -20495,7 +20255,7 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K580" t="inlineStr">
         <is>
@@ -20534,7 +20294,7 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K581" t="inlineStr">
         <is>
@@ -20573,7 +20333,7 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K582" t="inlineStr">
         <is>
@@ -20612,7 +20372,7 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K583" t="inlineStr">
         <is>
@@ -20651,7 +20411,7 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K584" t="inlineStr">
         <is>
@@ -20690,7 +20450,7 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K585" t="inlineStr">
         <is>
@@ -20729,7 +20489,7 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K586" t="inlineStr">
         <is>
@@ -20768,7 +20528,7 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K587" t="inlineStr">
         <is>
@@ -20807,7 +20567,7 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K588" t="inlineStr">
         <is>
@@ -20846,7 +20606,7 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K589" t="inlineStr">
         <is>
@@ -20885,7 +20645,7 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K590" t="inlineStr">
         <is>
@@ -20924,7 +20684,7 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K591" t="inlineStr">
         <is>
@@ -20963,7 +20723,7 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K592" t="inlineStr">
         <is>
@@ -21002,7 +20762,7 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K593" t="inlineStr">
         <is>
@@ -21041,7 +20801,7 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K594" t="inlineStr">
         <is>
@@ -21080,7 +20840,7 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K595" t="inlineStr">
         <is>
@@ -21119,7 +20879,7 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K596" t="inlineStr">
         <is>
@@ -21158,7 +20918,7 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K597" t="inlineStr">
         <is>
@@ -21197,7 +20957,7 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K598" t="inlineStr">
         <is>
@@ -21236,7 +20996,7 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K599" t="inlineStr">
         <is>
@@ -21275,7 +21035,7 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K600" t="inlineStr">
         <is>
@@ -21314,7 +21074,7 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K601" t="inlineStr">
         <is>
@@ -21353,7 +21113,7 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K602" t="inlineStr">
         <is>
@@ -21392,7 +21152,7 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K603" t="inlineStr">
         <is>
@@ -21431,7 +21191,7 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K604" t="inlineStr">
         <is>
@@ -21470,7 +21230,7 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K605" t="inlineStr">
         <is>
@@ -21509,7 +21269,7 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K606" t="inlineStr">
         <is>
@@ -21548,7 +21308,7 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K607" t="inlineStr">
         <is>
@@ -21587,7 +21347,7 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K608" t="inlineStr">
         <is>
@@ -21626,7 +21386,7 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K609" t="inlineStr">
         <is>
@@ -21665,7 +21425,7 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K610" t="inlineStr">
         <is>
@@ -21704,7 +21464,7 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K611" t="inlineStr">
         <is>
@@ -21743,7 +21503,7 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K612" t="inlineStr">
         <is>
@@ -21782,7 +21542,7 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K613" t="inlineStr">
         <is>
@@ -21821,7 +21581,7 @@
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K614" t="inlineStr">
         <is>
@@ -21860,7 +21620,7 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K615" t="inlineStr">
         <is>
@@ -21899,7 +21659,7 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K616" t="inlineStr">
         <is>
@@ -21938,7 +21698,7 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K617" t="inlineStr">
         <is>
@@ -21977,7 +21737,7 @@
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K618" t="inlineStr">
         <is>
@@ -22016,7 +21776,7 @@
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K619" t="inlineStr">
         <is>
@@ -22055,7 +21815,7 @@
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K620" t="inlineStr">
         <is>
@@ -22094,7 +21854,7 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K621" t="inlineStr">
         <is>
@@ -22133,7 +21893,7 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K622" t="inlineStr">
         <is>
@@ -22172,7 +21932,7 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K623" t="inlineStr">
         <is>
@@ -22211,7 +21971,7 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K624" t="inlineStr">
         <is>
@@ -22250,7 +22010,7 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K625" t="inlineStr">
         <is>
@@ -22289,7 +22049,7 @@
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K626" t="inlineStr">
         <is>
@@ -22328,7 +22088,7 @@
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K627" t="inlineStr">
         <is>
@@ -22367,7 +22127,7 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K628" t="inlineStr">
         <is>
@@ -22406,7 +22166,7 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K629" t="inlineStr">
         <is>
@@ -22445,7 +22205,7 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K630" t="inlineStr">
         <is>
@@ -22484,7 +22244,7 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K631" t="inlineStr">
         <is>
@@ -22523,7 +22283,7 @@
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K632" t="inlineStr">
         <is>
@@ -22562,7 +22322,7 @@
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K633" t="inlineStr">
         <is>
@@ -22601,7 +22361,7 @@
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K634" t="inlineStr">
         <is>
@@ -22640,7 +22400,7 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K635" t="inlineStr">
         <is>
@@ -22679,7 +22439,7 @@
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K636" t="inlineStr">
         <is>
@@ -22718,7 +22478,7 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K637" t="inlineStr">
         <is>
@@ -22757,7 +22517,7 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K638" t="inlineStr">
         <is>
@@ -22796,7 +22556,7 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K639" t="inlineStr">
         <is>
@@ -22835,7 +22595,7 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K640" t="inlineStr">
         <is>
@@ -22870,13 +22630,11 @@
         <v>-6381382.129719684</v>
       </c>
       <c r="H641" t="n">
-        <v>1</v>
-      </c>
-      <c r="I641" t="n">
-        <v>5.806</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I641" t="inlineStr"/>
       <c r="J641" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K641" t="inlineStr">
         <is>
@@ -22911,13 +22669,11 @@
         <v>-6230251.756804546</v>
       </c>
       <c r="H642" t="n">
-        <v>1</v>
-      </c>
-      <c r="I642" t="n">
-        <v>5.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I642" t="inlineStr"/>
       <c r="J642" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K642" t="inlineStr">
         <is>
@@ -22956,7 +22712,7 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K643" t="inlineStr">
         <is>
@@ -22995,7 +22751,7 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K644" t="inlineStr">
         <is>
@@ -23034,7 +22790,7 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K645" t="inlineStr">
         <is>
@@ -23073,7 +22829,7 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K646" t="inlineStr">
         <is>
@@ -23112,7 +22868,7 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K647" t="inlineStr">
         <is>
@@ -23151,7 +22907,7 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K648" t="inlineStr">
         <is>
@@ -23190,7 +22946,7 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K649" t="inlineStr">
         <is>
@@ -23225,11 +22981,13 @@
         <v>-7105186.219004546</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
-      </c>
-      <c r="I650" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I650" t="n">
+        <v>5.8</v>
+      </c>
       <c r="J650" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K650" t="inlineStr">
         <is>
@@ -23268,7 +23026,7 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K651" t="inlineStr">
         <is>
@@ -23303,11 +23061,13 @@
         <v>-7101771.050204546</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
-      </c>
-      <c r="I652" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I652" t="n">
+        <v>5.795</v>
+      </c>
       <c r="J652" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K652" t="inlineStr">
         <is>
@@ -23342,11 +23102,13 @@
         <v>-6684280.462604546</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
-      </c>
-      <c r="I653" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I653" t="n">
+        <v>5.805</v>
+      </c>
       <c r="J653" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K653" t="inlineStr">
         <is>
@@ -23381,11 +23143,13 @@
         <v>-6455507.620104546</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
-      </c>
-      <c r="I654" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I654" t="n">
+        <v>5.815</v>
+      </c>
       <c r="J654" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K654" t="inlineStr">
         <is>
@@ -23420,11 +23184,13 @@
         <v>-6455740.620104546</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
-      </c>
-      <c r="I655" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I655" t="n">
+        <v>5.816</v>
+      </c>
       <c r="J655" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K655" t="inlineStr">
         <is>
@@ -23459,11 +23225,13 @@
         <v>-6206762.958904546</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
-      </c>
-      <c r="I656" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I656" t="n">
+        <v>5.811</v>
+      </c>
       <c r="J656" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K656" t="inlineStr">
         <is>
@@ -23498,11 +23266,13 @@
         <v>-6486337.912204546</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
-      </c>
-      <c r="I657" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I657" t="n">
+        <v>5.821</v>
+      </c>
       <c r="J657" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K657" t="inlineStr">
         <is>
@@ -23537,11 +23307,13 @@
         <v>-6486337.912204546</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
-      </c>
-      <c r="I658" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I658" t="n">
+        <v>5.811</v>
+      </c>
       <c r="J658" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K658" t="inlineStr">
         <is>
@@ -23576,11 +23348,13 @@
         <v>-6375097.530104546</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
-      </c>
-      <c r="I659" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I659" t="n">
+        <v>5.811</v>
+      </c>
       <c r="J659" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K659" t="inlineStr">
         <is>
@@ -23615,11 +23389,13 @@
         <v>-6365011.530104546</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
-      </c>
-      <c r="I660" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I660" t="n">
+        <v>5.813</v>
+      </c>
       <c r="J660" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K660" t="inlineStr">
         <is>
@@ -23658,7 +23434,7 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K661" t="inlineStr">
         <is>
@@ -23697,7 +23473,7 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K662" t="inlineStr">
         <is>
@@ -23732,11 +23508,13 @@
         <v>-6164807.320504546</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
-      </c>
-      <c r="I663" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I663" t="n">
+        <v>5.819</v>
+      </c>
       <c r="J663" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K663" t="inlineStr">
         <is>
@@ -23771,11 +23549,13 @@
         <v>-5907021.959104546</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
-      </c>
-      <c r="I664" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I664" t="n">
+        <v>5.825</v>
+      </c>
       <c r="J664" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K664" t="inlineStr">
         <is>
@@ -23814,7 +23594,7 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K665" t="inlineStr">
         <is>
@@ -23849,11 +23629,13 @@
         <v>-5777174.924204547</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
-      </c>
-      <c r="I666" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I666" t="n">
+        <v>5.828</v>
+      </c>
       <c r="J666" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K666" t="inlineStr">
         <is>
@@ -23888,11 +23670,13 @@
         <v>-5667790.398704547</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
-      </c>
-      <c r="I667" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I667" t="n">
+        <v>5.824</v>
+      </c>
       <c r="J667" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K667" t="inlineStr">
         <is>
@@ -23931,7 +23715,7 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K668" t="inlineStr">
         <is>
@@ -23970,7 +23754,7 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K669" t="inlineStr">
         <is>
@@ -24009,7 +23793,7 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K670" t="inlineStr">
         <is>
@@ -24048,7 +23832,7 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K671" t="inlineStr">
         <is>
@@ -24087,7 +23871,7 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K672" t="inlineStr">
         <is>
@@ -24126,7 +23910,7 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K673" t="inlineStr">
         <is>
@@ -24165,7 +23949,7 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K674" t="inlineStr">
         <is>
@@ -24204,7 +23988,7 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K675" t="inlineStr">
         <is>
@@ -24243,7 +24027,7 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K676" t="inlineStr">
         <is>
@@ -24282,7 +24066,7 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K677" t="inlineStr">
         <is>
@@ -24321,7 +24105,7 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K678" t="inlineStr">
         <is>
@@ -24360,7 +24144,7 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K679" t="inlineStr">
         <is>
@@ -24399,7 +24183,7 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K680" t="inlineStr">
         <is>
@@ -24438,7 +24222,7 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K681" t="inlineStr">
         <is>
@@ -24477,7 +24261,7 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K682" t="inlineStr">
         <is>
@@ -24516,7 +24300,7 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K683" t="inlineStr">
         <is>
@@ -24555,7 +24339,7 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K684" t="inlineStr">
         <is>
@@ -24594,7 +24378,7 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K685" t="inlineStr">
         <is>
@@ -24633,7 +24417,7 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K686" t="inlineStr">
         <is>
@@ -24672,7 +24456,7 @@
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K687" t="inlineStr">
         <is>
@@ -24711,7 +24495,7 @@
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K688" t="inlineStr">
         <is>
@@ -24750,7 +24534,7 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K689" t="inlineStr">
         <is>
@@ -24789,7 +24573,7 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K690" t="inlineStr">
         <is>
@@ -24828,7 +24612,7 @@
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K691" t="inlineStr">
         <is>
@@ -24867,7 +24651,7 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K692" t="inlineStr">
         <is>
@@ -24906,7 +24690,7 @@
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K693" t="inlineStr">
         <is>
@@ -24945,7 +24729,7 @@
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K694" t="inlineStr">
         <is>
@@ -24984,7 +24768,7 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K695" t="inlineStr">
         <is>
@@ -25023,7 +24807,7 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K696" t="inlineStr">
         <is>
@@ -25062,7 +24846,7 @@
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K697" t="inlineStr">
         <is>
@@ -25101,7 +24885,7 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K698" t="inlineStr">
         <is>
@@ -25140,7 +24924,7 @@
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K699" t="inlineStr">
         <is>
@@ -25179,7 +24963,7 @@
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K700" t="inlineStr">
         <is>
@@ -25218,7 +25002,7 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K701" t="inlineStr">
         <is>
@@ -25257,7 +25041,7 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K702" t="inlineStr">
         <is>
@@ -25296,7 +25080,7 @@
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K703" t="inlineStr">
         <is>
@@ -25335,7 +25119,7 @@
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K704" t="inlineStr">
         <is>
@@ -25374,7 +25158,7 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K705" t="inlineStr">
         <is>
@@ -25413,7 +25197,7 @@
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K706" t="inlineStr">
         <is>
@@ -25452,7 +25236,7 @@
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K707" t="inlineStr">
         <is>
@@ -25491,7 +25275,7 @@
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K708" t="inlineStr">
         <is>
@@ -25530,7 +25314,7 @@
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K709" t="inlineStr">
         <is>
@@ -25569,7 +25353,7 @@
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K710" t="inlineStr">
         <is>
@@ -25608,7 +25392,7 @@
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K711" t="inlineStr">
         <is>
@@ -25647,7 +25431,7 @@
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K712" t="inlineStr">
         <is>
@@ -25686,7 +25470,7 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K713" t="inlineStr">
         <is>
@@ -25725,7 +25509,7 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K714" t="inlineStr">
         <is>
@@ -25764,7 +25548,7 @@
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K715" t="inlineStr">
         <is>
@@ -25803,7 +25587,7 @@
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K716" t="inlineStr">
         <is>
@@ -25842,7 +25626,7 @@
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K717" t="inlineStr">
         <is>
@@ -25881,7 +25665,7 @@
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K718" t="inlineStr">
         <is>
@@ -25920,7 +25704,7 @@
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K719" t="inlineStr">
         <is>
@@ -25959,7 +25743,7 @@
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K720" t="inlineStr">
         <is>
@@ -25998,7 +25782,7 @@
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K721" t="inlineStr">
         <is>
@@ -26037,7 +25821,7 @@
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K722" t="inlineStr">
         <is>
@@ -26076,7 +25860,7 @@
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K723" t="inlineStr">
         <is>
@@ -26115,7 +25899,7 @@
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K724" t="inlineStr">
         <is>
@@ -26154,7 +25938,7 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K725" t="inlineStr">
         <is>
@@ -26193,7 +25977,7 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K726" t="inlineStr">
         <is>
@@ -26232,7 +26016,7 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K727" t="inlineStr">
         <is>
@@ -26271,7 +26055,7 @@
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K728" t="inlineStr">
         <is>
@@ -26310,7 +26094,7 @@
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K729" t="inlineStr">
         <is>
@@ -26349,7 +26133,7 @@
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K730" t="inlineStr">
         <is>
@@ -26388,7 +26172,7 @@
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K731" t="inlineStr">
         <is>
@@ -26427,7 +26211,7 @@
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K732" t="inlineStr">
         <is>
@@ -26466,7 +26250,7 @@
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K733" t="inlineStr">
         <is>
@@ -26505,7 +26289,7 @@
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K734" t="inlineStr">
         <is>
@@ -26544,7 +26328,7 @@
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K735" t="inlineStr">
         <is>
@@ -26583,7 +26367,7 @@
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K736" t="inlineStr">
         <is>
@@ -26622,7 +26406,7 @@
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K737" t="inlineStr">
         <is>
@@ -26661,7 +26445,7 @@
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K738" t="inlineStr">
         <is>
@@ -26700,7 +26484,7 @@
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K739" t="inlineStr">
         <is>
@@ -26739,7 +26523,7 @@
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K740" t="inlineStr">
         <is>
@@ -26778,7 +26562,7 @@
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K741" t="inlineStr">
         <is>
@@ -26817,7 +26601,7 @@
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K742" t="inlineStr">
         <is>
@@ -26856,7 +26640,7 @@
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K743" t="inlineStr">
         <is>
@@ -26895,7 +26679,7 @@
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K744" t="inlineStr">
         <is>
@@ -26934,7 +26718,7 @@
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K745" t="inlineStr">
         <is>
@@ -26973,7 +26757,7 @@
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K746" t="inlineStr">
         <is>
@@ -27012,7 +26796,7 @@
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K747" t="inlineStr">
         <is>
@@ -27051,7 +26835,7 @@
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K748" t="inlineStr">
         <is>
@@ -27090,7 +26874,7 @@
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K749" t="inlineStr">
         <is>
@@ -27129,7 +26913,7 @@
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K750" t="inlineStr">
         <is>
@@ -27168,7 +26952,7 @@
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K751" t="inlineStr">
         <is>
@@ -27207,7 +26991,7 @@
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K752" t="inlineStr">
         <is>
@@ -27246,7 +27030,7 @@
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K753" t="inlineStr">
         <is>
@@ -27285,7 +27069,7 @@
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K754" t="inlineStr">
         <is>
@@ -27324,7 +27108,7 @@
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="n">
-        <v>5.823</v>
+        <v>5.83</v>
       </c>
       <c r="K755" t="inlineStr">
         <is>
